--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_6_36.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_6_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2707896.37888262</v>
+        <v>2707118.353018542</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7632301.119110421</v>
+        <v>7632301.11911042</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>32.9937807002341</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>326.4712991957722</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -709,10 +709,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -740,7 +740,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
-        <v>149.1476881355087</v>
+        <v>149.1476881355094</v>
       </c>
       <c r="D3" t="n">
         <v>128.7880777047345</v>
@@ -806,7 +806,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
-        <v>177.5210747552484</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="4">
@@ -822,19 +822,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>28.74595470735171</v>
       </c>
       <c r="V4" t="n">
-        <v>206.6890709537363</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,22 +898,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>227.7981557993275</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>198.2834685454721</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1071,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>113.0888609375723</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>207.6985751920915</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>207.1561433611161</v>
       </c>
       <c r="F8" t="n">
         <v>412.725494085322</v>
@@ -1150,7 +1150,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>158.182465120235</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>154.0032240193895</v>
@@ -1305,16 +1305,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>76.74086563202131</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>109.4449070220129</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>304.1102163321214</v>
       </c>
       <c r="C11" t="n">
-        <v>296.8641645599371</v>
+        <v>296.8641645599372</v>
       </c>
       <c r="D11" t="n">
         <v>289.2071355733374</v>
@@ -1381,16 +1381,16 @@
         <v>306.1781077124593</v>
       </c>
       <c r="F11" t="n">
-        <v>320.3459121631604</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>316.5721076318975</v>
+        <v>203.9273271568433</v>
       </c>
       <c r="H11" t="n">
         <v>227.6490894641547</v>
       </c>
       <c r="I11" t="n">
-        <v>41.51161479166433</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.65863498198736</v>
+        <v>70.65863498198738</v>
       </c>
       <c r="T11" t="n">
-        <v>61.15139001251716</v>
+        <v>128.538272885681</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>160.8092652753604</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>246.3061592813553</v>
       </c>
       <c r="W11" t="n">
         <v>274.9094627592339</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>90.97635658222673</v>
+        <v>90.97635658222617</v>
       </c>
       <c r="C13" t="n">
-        <v>76.12348483250913</v>
+        <v>76.12348483250915</v>
       </c>
       <c r="D13" t="n">
-        <v>61.69720004434886</v>
+        <v>61.69720004434888</v>
       </c>
       <c r="E13" t="n">
-        <v>61.62364209722797</v>
+        <v>61.62364209722799</v>
       </c>
       <c r="F13" t="n">
-        <v>63.37309351699524</v>
+        <v>63.37309351699525</v>
       </c>
       <c r="G13" t="n">
-        <v>74.15629810664799</v>
+        <v>74.15629810664801</v>
       </c>
       <c r="H13" t="n">
-        <v>61.22737088396742</v>
+        <v>61.22737088396743</v>
       </c>
       <c r="I13" t="n">
-        <v>38.31230768984144</v>
+        <v>38.31230768984145</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.6801933358696</v>
+        <v>28.68019333586906</v>
       </c>
       <c r="S13" t="n">
-        <v>107.7873492492836</v>
+        <v>107.7873492492837</v>
       </c>
       <c r="T13" t="n">
         <v>140.830027878673</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>304.1102163321214</v>
       </c>
       <c r="C14" t="n">
-        <v>296.8641645599371</v>
+        <v>296.8641645599372</v>
       </c>
       <c r="D14" t="n">
         <v>289.2071355733374</v>
@@ -1618,16 +1618,16 @@
         <v>306.1781077124593</v>
       </c>
       <c r="F14" t="n">
-        <v>320.3459121631604</v>
+        <v>320.3459121631605</v>
       </c>
       <c r="G14" t="n">
-        <v>316.5721076318975</v>
+        <v>316.5721076318976</v>
       </c>
       <c r="H14" t="n">
-        <v>227.6490894641547</v>
+        <v>154.6645699689684</v>
       </c>
       <c r="I14" t="n">
-        <v>41.51161479166434</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.65863498198738</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>160.8092652753604</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>246.3061592813552</v>
+        <v>246.3061592813553</v>
       </c>
       <c r="W14" t="n">
         <v>274.9094627592339</v>
       </c>
       <c r="X14" t="n">
-        <v>251.3246788820353</v>
+        <v>293.1784970941122</v>
       </c>
       <c r="Y14" t="n">
         <v>300.1462200664433</v>
@@ -1706,7 +1706,7 @@
         <v>87.00394990948571</v>
       </c>
       <c r="I15" t="n">
-        <v>47.43000054063848</v>
+        <v>47.43000054063847</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>21.03894017059159</v>
+        <v>21.03894017059158</v>
       </c>
       <c r="S15" t="n">
         <v>132.7918903108426</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>90.97635658222673</v>
+        <v>90.97635658222674</v>
       </c>
       <c r="C16" t="n">
-        <v>76.12348483250913</v>
+        <v>76.12348483250915</v>
       </c>
       <c r="D16" t="n">
-        <v>61.69720004434886</v>
+        <v>61.69720004434888</v>
       </c>
       <c r="E16" t="n">
-        <v>61.62364209722797</v>
+        <v>61.62364209722799</v>
       </c>
       <c r="F16" t="n">
-        <v>63.37309351699524</v>
+        <v>63.37309351699525</v>
       </c>
       <c r="G16" t="n">
-        <v>74.15629810664798</v>
+        <v>74.15629810664799</v>
       </c>
       <c r="H16" t="n">
-        <v>61.22737088396774</v>
+        <v>61.22737088396744</v>
       </c>
       <c r="I16" t="n">
-        <v>38.31230768984159</v>
+        <v>38.31230768984145</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.68019333586905</v>
+        <v>28.68019333586906</v>
       </c>
       <c r="S16" t="n">
-        <v>107.7873492492832</v>
+        <v>107.7873492492839</v>
       </c>
       <c r="T16" t="n">
-        <v>140.8300278786729</v>
+        <v>140.830027878673</v>
       </c>
       <c r="U16" t="n">
-        <v>190.2028782820252</v>
+        <v>190.2028782820254</v>
       </c>
       <c r="V16" t="n">
         <v>170.9399698052225</v>
@@ -1861,10 +1861,10 @@
         <v>316.5721076318976</v>
       </c>
       <c r="H17" t="n">
-        <v>227.6490894641548</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.51161479166437</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,13 +1897,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>113.1529551773038</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>173.3216397861686</v>
+        <v>246.3061592813553</v>
       </c>
       <c r="W17" t="n">
         <v>274.9094627592339</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>28.68019333586914</v>
+        <v>28.68019333586909</v>
       </c>
       <c r="S19" t="n">
         <v>107.7873492492837</v>
@@ -2058,7 +2058,7 @@
         <v>140.830027878673</v>
       </c>
       <c r="U19" t="n">
-        <v>190.2028782820245</v>
+        <v>190.202878282025</v>
       </c>
       <c r="V19" t="n">
         <v>170.9399698052225</v>
@@ -2083,7 +2083,7 @@
         <v>304.1102163321214</v>
       </c>
       <c r="C20" t="n">
-        <v>296.8641645599372</v>
+        <v>91.52256138587703</v>
       </c>
       <c r="D20" t="n">
         <v>289.2071355733374</v>
@@ -2092,16 +2092,16 @@
         <v>306.1781077124594</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>320.3459121631605</v>
       </c>
       <c r="G20" t="n">
-        <v>162.4157123651786</v>
+        <v>316.5721076318976</v>
       </c>
       <c r="H20" t="n">
-        <v>227.6490894641548</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.51161479166437</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>70.6586349819874</v>
+        <v>70.65863498198742</v>
       </c>
       <c r="T20" t="n">
         <v>128.538272885681</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>21.03894017059158</v>
+        <v>21.03894017059159</v>
       </c>
       <c r="S21" t="n">
         <v>132.7918903108426</v>
@@ -2256,10 +2256,10 @@
         <v>74.15629810664804</v>
       </c>
       <c r="H22" t="n">
-        <v>61.22737088396746</v>
+        <v>61.22737088396747</v>
       </c>
       <c r="I22" t="n">
-        <v>38.31230768984148</v>
+        <v>38.31230768984149</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>28.68019333586908</v>
+        <v>28.6801933358691</v>
       </c>
       <c r="S22" t="n">
         <v>107.7873492492837</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>21.03894017059159</v>
+        <v>21.03894017059158</v>
       </c>
       <c r="S24" t="n">
         <v>132.7918903108426</v>
@@ -2563,7 +2563,7 @@
         <v>289.2071355733374</v>
       </c>
       <c r="E26" t="n">
-        <v>306.1781077124593</v>
+        <v>306.1781077124594</v>
       </c>
       <c r="F26" t="n">
         <v>320.3459121631605</v>
@@ -2572,7 +2572,7 @@
         <v>316.5721076318976</v>
       </c>
       <c r="H26" t="n">
-        <v>94.80461689238349</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.65863498198738</v>
+        <v>26.12629708328753</v>
       </c>
       <c r="T26" t="n">
         <v>128.538272885681</v>
       </c>
       <c r="U26" t="n">
-        <v>160.8092652753604</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>246.3061592813553</v>
@@ -2623,7 +2623,7 @@
         <v>293.1784970941122</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>300.1462200664434</v>
       </c>
     </row>
     <row r="27">
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>21.03894017059159</v>
+        <v>21.03894017059158</v>
       </c>
       <c r="S27" t="n">
         <v>132.7918903108426</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>90.97635658222674</v>
+        <v>90.97635658222676</v>
       </c>
       <c r="C28" t="n">
-        <v>76.12348483250915</v>
+        <v>76.12348483250916</v>
       </c>
       <c r="D28" t="n">
-        <v>61.69720004434888</v>
+        <v>61.69720004434889</v>
       </c>
       <c r="E28" t="n">
-        <v>61.62364209722799</v>
+        <v>61.623642097228</v>
       </c>
       <c r="F28" t="n">
-        <v>63.37309351699525</v>
+        <v>63.37309351699527</v>
       </c>
       <c r="G28" t="n">
-        <v>74.15629810664799</v>
+        <v>74.15629810664801</v>
       </c>
       <c r="H28" t="n">
-        <v>61.22737088396744</v>
+        <v>61.22737088396745</v>
       </c>
       <c r="I28" t="n">
-        <v>38.3123076898415</v>
+        <v>38.31230768984146</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>140.830027878673</v>
       </c>
       <c r="U28" t="n">
-        <v>190.2028782820254</v>
+        <v>190.202878282025</v>
       </c>
       <c r="V28" t="n">
         <v>170.9399698052225</v>
       </c>
       <c r="W28" t="n">
-        <v>188.1175161259726</v>
+        <v>188.1175161259727</v>
       </c>
       <c r="X28" t="n">
         <v>139.3599370726852</v>
       </c>
       <c r="Y28" t="n">
-        <v>128.5013586493615</v>
+        <v>128.5013586493616</v>
       </c>
     </row>
     <row r="29">
@@ -2803,16 +2803,16 @@
         <v>306.1781077124593</v>
       </c>
       <c r="F29" t="n">
-        <v>320.3459121631605</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>111.2305044578375</v>
+        <v>162.4157123651789</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>227.6490894641547</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.51161479166434</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>21.03894017059159</v>
+        <v>21.03894017059158</v>
       </c>
       <c r="S30" t="n">
         <v>132.7918903108426</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.68019333586892</v>
+        <v>28.68019333586906</v>
       </c>
       <c r="S31" t="n">
         <v>107.7873492492837</v>
@@ -3034,7 +3034,7 @@
         <v>265.2306773979452</v>
       </c>
       <c r="D32" t="n">
-        <v>257.5736484113454</v>
+        <v>257.5736484113455</v>
       </c>
       <c r="E32" t="n">
         <v>274.5446205504674</v>
@@ -3043,13 +3043,13 @@
         <v>288.7124250011685</v>
       </c>
       <c r="G32" t="n">
-        <v>284.9386204699055</v>
+        <v>284.9386204699056</v>
       </c>
       <c r="H32" t="n">
-        <v>196.0156023021627</v>
+        <v>196.0156023021628</v>
       </c>
       <c r="I32" t="n">
-        <v>9.878127629672319</v>
+        <v>9.878127629672377</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,10 +3082,10 @@
         <v>39.02514781999611</v>
       </c>
       <c r="T32" t="n">
-        <v>96.90478572368895</v>
+        <v>96.904785723689</v>
       </c>
       <c r="U32" t="n">
-        <v>129.1757781133684</v>
+        <v>129.1757781133685</v>
       </c>
       <c r="V32" t="n">
         <v>214.6726721193633</v>
@@ -3094,7 +3094,7 @@
         <v>243.2759755972419</v>
       </c>
       <c r="X32" t="n">
-        <v>261.5450099321202</v>
+        <v>261.5450099321203</v>
       </c>
       <c r="Y32" t="n">
         <v>268.5127329044514</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>59.34286942023472</v>
+        <v>59.34286942023478</v>
       </c>
       <c r="C34" t="n">
-        <v>44.48999767051713</v>
+        <v>44.48999767051718</v>
       </c>
       <c r="D34" t="n">
-        <v>30.06371288235685</v>
+        <v>30.06371288235691</v>
       </c>
       <c r="E34" t="n">
-        <v>29.99015493523596</v>
+        <v>29.99015493523602</v>
       </c>
       <c r="F34" t="n">
-        <v>31.73960635500323</v>
+        <v>31.73960635500329</v>
       </c>
       <c r="G34" t="n">
-        <v>42.52281094465598</v>
+        <v>42.52281094465604</v>
       </c>
       <c r="H34" t="n">
-        <v>29.59388372197541</v>
+        <v>29.59388372197547</v>
       </c>
       <c r="I34" t="n">
-        <v>6.678820527849433</v>
+        <v>6.67882052784949</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>76.15386208729163</v>
+        <v>76.15386208729169</v>
       </c>
       <c r="T34" t="n">
-        <v>109.1965407166809</v>
+        <v>109.196540716681</v>
       </c>
       <c r="U34" t="n">
         <v>158.5693911200333</v>
@@ -3249,13 +3249,13 @@
         <v>139.3064826432305</v>
       </c>
       <c r="W34" t="n">
-        <v>156.4840289639806</v>
+        <v>156.4840289639807</v>
       </c>
       <c r="X34" t="n">
         <v>107.7264499106932</v>
       </c>
       <c r="Y34" t="n">
-        <v>96.86787148736953</v>
+        <v>96.86787148736958</v>
       </c>
     </row>
     <row r="35">
@@ -3271,7 +3271,7 @@
         <v>265.2306773979452</v>
       </c>
       <c r="D35" t="n">
-        <v>257.5736484113454</v>
+        <v>257.5736484113455</v>
       </c>
       <c r="E35" t="n">
         <v>274.5446205504674</v>
@@ -3280,13 +3280,13 @@
         <v>288.7124250011685</v>
       </c>
       <c r="G35" t="n">
-        <v>284.9386204699055</v>
+        <v>284.9386204699056</v>
       </c>
       <c r="H35" t="n">
-        <v>196.0156023021627</v>
+        <v>196.0156023021628</v>
       </c>
       <c r="I35" t="n">
-        <v>9.87812762967231</v>
+        <v>9.878127629672377</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>39.02514781999567</v>
+        <v>39.02514781999541</v>
       </c>
       <c r="T35" t="n">
-        <v>96.90478572368893</v>
+        <v>96.904785723689</v>
       </c>
       <c r="U35" t="n">
         <v>129.1757781133695</v>
@@ -3331,7 +3331,7 @@
         <v>243.2759755972419</v>
       </c>
       <c r="X35" t="n">
-        <v>261.5450099321202</v>
+        <v>261.5450099321203</v>
       </c>
       <c r="Y35" t="n">
         <v>268.5127329044514</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>59.34286942023472</v>
+        <v>59.34286942023478</v>
       </c>
       <c r="C37" t="n">
-        <v>44.48999767051713</v>
+        <v>44.48999767051718</v>
       </c>
       <c r="D37" t="n">
-        <v>30.06371288235685</v>
+        <v>30.06371288235691</v>
       </c>
       <c r="E37" t="n">
-        <v>29.99015493523596</v>
+        <v>29.99015493523602</v>
       </c>
       <c r="F37" t="n">
-        <v>31.73960635500323</v>
+        <v>31.73960635500329</v>
       </c>
       <c r="G37" t="n">
-        <v>42.52281094465598</v>
+        <v>42.52281094465604</v>
       </c>
       <c r="H37" t="n">
-        <v>29.59388372197541</v>
+        <v>29.59388372197547</v>
       </c>
       <c r="I37" t="n">
-        <v>6.678820527849433</v>
+        <v>6.67882052784949</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>76.15386208729163</v>
+        <v>76.15386208729169</v>
       </c>
       <c r="T37" t="n">
-        <v>109.1965407166809</v>
+        <v>109.196540716681</v>
       </c>
       <c r="U37" t="n">
         <v>158.5693911200333</v>
@@ -3486,13 +3486,13 @@
         <v>139.3064826432305</v>
       </c>
       <c r="W37" t="n">
-        <v>156.4840289639806</v>
+        <v>156.4840289639807</v>
       </c>
       <c r="X37" t="n">
         <v>107.7264499106932</v>
       </c>
       <c r="Y37" t="n">
-        <v>96.86787148736953</v>
+        <v>96.86787148736958</v>
       </c>
     </row>
     <row r="38">
@@ -3508,7 +3508,7 @@
         <v>265.2306773979452</v>
       </c>
       <c r="D38" t="n">
-        <v>257.5736484113454</v>
+        <v>257.5736484113455</v>
       </c>
       <c r="E38" t="n">
         <v>274.5446205504674</v>
@@ -3517,13 +3517,13 @@
         <v>288.7124250011685</v>
       </c>
       <c r="G38" t="n">
-        <v>284.9386204699055</v>
+        <v>284.9386204699056</v>
       </c>
       <c r="H38" t="n">
-        <v>196.0156023021627</v>
+        <v>196.0156023021628</v>
       </c>
       <c r="I38" t="n">
-        <v>9.878127629673562</v>
+        <v>9.878127629672363</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>39.02514781999535</v>
+        <v>39.02514781999541</v>
       </c>
       <c r="T38" t="n">
-        <v>96.90478572368895</v>
+        <v>96.90478572368899</v>
       </c>
       <c r="U38" t="n">
-        <v>129.1757781133684</v>
+        <v>129.1757781133691</v>
       </c>
       <c r="V38" t="n">
         <v>214.6726721193633</v>
@@ -3568,7 +3568,7 @@
         <v>243.2759755972419</v>
       </c>
       <c r="X38" t="n">
-        <v>261.5450099321202</v>
+        <v>261.5450099321203</v>
       </c>
       <c r="Y38" t="n">
         <v>268.5127329044514</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>59.34286942023472</v>
+        <v>59.34286942023478</v>
       </c>
       <c r="C40" t="n">
-        <v>44.48999767051713</v>
+        <v>44.48999767051718</v>
       </c>
       <c r="D40" t="n">
-        <v>30.06371288235685</v>
+        <v>30.06371288235691</v>
       </c>
       <c r="E40" t="n">
-        <v>29.99015493523596</v>
+        <v>29.99015493523602</v>
       </c>
       <c r="F40" t="n">
-        <v>31.73960635500323</v>
+        <v>31.73960635500329</v>
       </c>
       <c r="G40" t="n">
-        <v>42.52281094465598</v>
+        <v>42.52281094465604</v>
       </c>
       <c r="H40" t="n">
-        <v>29.59388372197541</v>
+        <v>29.59388372197547</v>
       </c>
       <c r="I40" t="n">
-        <v>6.678820527849433</v>
+        <v>6.67882052784949</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>76.15386208729163</v>
+        <v>76.15386208729169</v>
       </c>
       <c r="T40" t="n">
-        <v>109.1965407166809</v>
+        <v>109.196540716681</v>
       </c>
       <c r="U40" t="n">
         <v>158.5693911200333</v>
@@ -3723,13 +3723,13 @@
         <v>139.3064826432305</v>
       </c>
       <c r="W40" t="n">
-        <v>156.4840289639806</v>
+        <v>156.4840289639807</v>
       </c>
       <c r="X40" t="n">
         <v>107.7264499106932</v>
       </c>
       <c r="Y40" t="n">
-        <v>96.86787148736953</v>
+        <v>96.86787148736958</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>155.9079839379443</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3748,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>53.65027438611138</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>381.09200692333</v>
@@ -3760,7 +3760,7 @@
         <v>288.3951842243243</v>
       </c>
       <c r="I41" t="n">
-        <v>102.2577095518339</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3799,16 +3799,16 @@
         <v>221.55536003553</v>
       </c>
       <c r="V41" t="n">
-        <v>307.0522540415248</v>
+        <v>307.0522540415249</v>
       </c>
       <c r="W41" t="n">
-        <v>335.6555575194034</v>
+        <v>335.6555575194035</v>
       </c>
       <c r="X41" t="n">
         <v>353.9245918542817</v>
       </c>
       <c r="Y41" t="n">
-        <v>360.8923148266129</v>
+        <v>360.892314826613</v>
       </c>
     </row>
     <row r="42">
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>89.4262880960386</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.5334440094532</v>
+        <v>12.43020139189394</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>201.5761226388425</v>
       </c>
       <c r="U43" t="n">
-        <v>250.9489730421948</v>
+        <v>250.9489730421949</v>
       </c>
       <c r="V43" t="n">
-        <v>231.686064565392</v>
+        <v>231.6860645653921</v>
       </c>
       <c r="W43" t="n">
         <v>248.8636108861422</v>
       </c>
       <c r="X43" t="n">
-        <v>156.1526237580995</v>
+        <v>200.1060318328548</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>364.856311092291</v>
       </c>
       <c r="C44" t="n">
-        <v>50.62524618427592</v>
+        <v>357.6102593201068</v>
       </c>
       <c r="D44" t="n">
-        <v>349.953230333507</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>366.9242024726289</v>
+        <v>366.924202472629</v>
       </c>
       <c r="F44" t="n">
-        <v>381.09200692333</v>
+        <v>381.0920069233301</v>
       </c>
       <c r="G44" t="n">
         <v>377.3182023920671</v>
       </c>
       <c r="H44" t="n">
-        <v>288.3951842243243</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>102.2577095518339</v>
@@ -4030,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>189.2843676458505</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>307.0522540415248</v>
+        <v>101.9513971904714</v>
       </c>
       <c r="W44" t="n">
-        <v>335.6555575194034</v>
+        <v>335.6555575194035</v>
       </c>
       <c r="X44" t="n">
-        <v>353.9245918542817</v>
+        <v>353.9245918542818</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>360.892314826613</v>
       </c>
     </row>
     <row r="45">
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>151.7224513423963</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>122.4432948045184</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>122.3697368573976</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>124.1191882771648</v>
       </c>
       <c r="G46" t="n">
-        <v>134.9023928668175</v>
+        <v>134.9023928668176</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>121.973465644137</v>
       </c>
       <c r="I46" t="n">
-        <v>99.058402450011</v>
+        <v>99.05840245001104</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>89.4262880960386</v>
+        <v>89.42628809603865</v>
       </c>
       <c r="S46" t="n">
-        <v>17.65482804955779</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>201.5761226388425</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>231.686064565392</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>248.8636108861422</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>53.17546793721493</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2161.142036303753</v>
+        <v>917.7169290643797</v>
       </c>
       <c r="C2" t="n">
-        <v>2127.814985091395</v>
+        <v>524.5414275673102</v>
       </c>
       <c r="D2" t="n">
-        <v>1742.373856308063</v>
+        <v>524.5414275673102</v>
       </c>
       <c r="E2" t="n">
-        <v>1339.790331424607</v>
+        <v>524.5414275673102</v>
       </c>
       <c r="F2" t="n">
-        <v>922.895892954585</v>
+        <v>194.7724384806716</v>
       </c>
       <c r="G2" t="n">
-        <v>509.7331374425881</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H2" t="n">
         <v>185.6500870090788</v>
@@ -4330,22 +4330,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J2" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K2" t="n">
-        <v>550.9450990378335</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L2" t="n">
-        <v>550.9450990378335</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M2" t="n">
-        <v>1096.945999082414</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="N2" t="n">
-        <v>1624.757282719876</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O2" t="n">
-        <v>2064.796883612205</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P2" t="n">
         <v>2180.802944936232</v>
@@ -4357,25 +4357,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S2" t="n">
-        <v>2161.142036303753</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T2" t="n">
-        <v>2161.142036303753</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U2" t="n">
-        <v>2161.142036303753</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="V2" t="n">
-        <v>2161.142036303753</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="W2" t="n">
-        <v>2161.142036303753</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="X2" t="n">
-        <v>2161.142036303753</v>
+        <v>1714.702383855175</v>
       </c>
       <c r="Y2" t="n">
-        <v>2161.142036303753</v>
+        <v>1318.211674775777</v>
       </c>
     </row>
     <row r="3">
@@ -4385,7 +4385,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415753</v>
       </c>
       <c r="C3" t="n">
         <v>696.0247228016668</v>
@@ -4409,22 +4409,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J3" t="n">
-        <v>47.31297010154361</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K3" t="n">
-        <v>47.31297010154361</v>
+        <v>160.427952321271</v>
       </c>
       <c r="L3" t="n">
-        <v>47.31297010154361</v>
+        <v>643.9940382195842</v>
       </c>
       <c r="M3" t="n">
-        <v>623.6437572083089</v>
+        <v>1229.492043226187</v>
       </c>
       <c r="N3" t="n">
-        <v>1209.141762214911</v>
+        <v>1614.763130931309</v>
       </c>
       <c r="O3" t="n">
-        <v>1725.662044805892</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="P3" t="n">
         <v>2131.28341352229</v>
@@ -4454,7 +4454,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y3" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825366</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1464.201482535628</v>
+        <v>684.0046229251163</v>
       </c>
       <c r="C4" t="n">
-        <v>1464.201482535628</v>
+        <v>684.0046229251163</v>
       </c>
       <c r="D4" t="n">
-        <v>1464.201482535628</v>
+        <v>528.3715098276311</v>
       </c>
       <c r="E4" t="n">
-        <v>1464.201482535628</v>
+        <v>528.3715098276311</v>
       </c>
       <c r="F4" t="n">
-        <v>1464.201482535628</v>
+        <v>371.0455750406041</v>
       </c>
       <c r="G4" t="n">
-        <v>1464.201482535628</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="H4" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J4" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K4" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L4" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M4" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N4" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O4" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P4" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q4" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R4" t="n">
-        <v>2241.747515709757</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S4" t="n">
-        <v>2241.747515709757</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T4" t="n">
-        <v>2241.747515709757</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U4" t="n">
-        <v>1956.308723951658</v>
+        <v>684.0046229251163</v>
       </c>
       <c r="V4" t="n">
-        <v>1747.53188460445</v>
+        <v>684.0046229251163</v>
       </c>
       <c r="W4" t="n">
-        <v>1464.201482535628</v>
+        <v>684.0046229251163</v>
       </c>
       <c r="X4" t="n">
-        <v>1464.201482535628</v>
+        <v>684.0046229251163</v>
       </c>
       <c r="Y4" t="n">
-        <v>1464.201482535628</v>
+        <v>684.0046229251163</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2365.64850507718</v>
+        <v>802.8308573432142</v>
       </c>
       <c r="C5" t="n">
-        <v>1972.473003580111</v>
+        <v>802.8308573432142</v>
       </c>
       <c r="D5" t="n">
-        <v>1742.373856308063</v>
+        <v>802.8308573432142</v>
       </c>
       <c r="E5" t="n">
-        <v>1339.790331424607</v>
+        <v>802.8308573432142</v>
       </c>
       <c r="F5" t="n">
-        <v>922.895892954585</v>
+        <v>385.936418873192</v>
       </c>
       <c r="G5" t="n">
-        <v>509.7331374425881</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H5" t="n">
         <v>185.6500870090788</v>
@@ -4567,52 +4567,52 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J5" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K5" t="n">
-        <v>358.4764287842802</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L5" t="n">
-        <v>851.7967205028091</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="M5" t="n">
-        <v>1397.79762054739</v>
+        <v>1096.945999082414</v>
       </c>
       <c r="N5" t="n">
-        <v>1925.608904184852</v>
+        <v>1624.757282719876</v>
       </c>
       <c r="O5" t="n">
-        <v>2365.64850507718</v>
+        <v>2064.796883612205</v>
       </c>
       <c r="P5" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q5" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R5" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S5" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T5" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="U5" t="n">
-        <v>2365.64850507718</v>
+        <v>1905.389306738351</v>
       </c>
       <c r="V5" t="n">
-        <v>2365.64850507718</v>
+        <v>1563.28249744187</v>
       </c>
       <c r="W5" t="n">
-        <v>2365.64850507718</v>
+        <v>1192.283462410157</v>
       </c>
       <c r="X5" t="n">
-        <v>2365.64850507718</v>
+        <v>802.8308573432142</v>
       </c>
       <c r="Y5" t="n">
-        <v>2365.64850507718</v>
+        <v>802.8308573432142</v>
       </c>
     </row>
     <row r="6">
@@ -4655,7 +4655,7 @@
         <v>963.7331842818107</v>
       </c>
       <c r="M6" t="n">
-        <v>1443.506853769802</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N6" t="n">
         <v>1443.506853769802</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>325.0168383025782</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C7" t="n">
-        <v>325.0168383025782</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D7" t="n">
-        <v>325.0168383025782</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E7" t="n">
-        <v>325.0168383025782</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F7" t="n">
-        <v>325.0168383025782</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G7" t="n">
-        <v>325.0168383025782</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H7" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I7" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J7" t="n">
         <v>47.31297010154361</v>
@@ -4752,25 +4752,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S7" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T7" t="n">
-        <v>510.2248569938795</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U7" t="n">
-        <v>510.2248569938795</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V7" t="n">
-        <v>510.2248569938795</v>
+        <v>738.9634520450238</v>
       </c>
       <c r="W7" t="n">
-        <v>510.2248569938795</v>
+        <v>455.6330499762015</v>
       </c>
       <c r="X7" t="n">
-        <v>510.2248569938795</v>
+        <v>455.6330499762015</v>
       </c>
       <c r="Y7" t="n">
-        <v>510.2248569938795</v>
+        <v>232.5209887928449</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1408.882782488167</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="C8" t="n">
-        <v>1015.707280991098</v>
+        <v>1934.480089865633</v>
       </c>
       <c r="D8" t="n">
-        <v>1015.707280991098</v>
+        <v>1549.0389610823</v>
       </c>
       <c r="E8" t="n">
-        <v>1015.707280991098</v>
+        <v>1339.790331424607</v>
       </c>
       <c r="F8" t="n">
-        <v>598.8128425210757</v>
+        <v>922.895892954585</v>
       </c>
       <c r="G8" t="n">
-        <v>185.6500870090788</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H8" t="n">
         <v>185.6500870090788</v>
@@ -4804,19 +4804,19 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>1445.616517892115</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N8" t="n">
-        <v>1973.427801529577</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O8" t="n">
         <v>2365.64850507718</v>
@@ -4828,28 +4828,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="U8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="V8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="W8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="X8" t="n">
-        <v>2205.868237278963</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="Y8" t="n">
-        <v>1809.377528199564</v>
+        <v>2327.655591362702</v>
       </c>
     </row>
     <row r="9">
@@ -4886,22 +4886,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K9" t="n">
-        <v>367.0521161637701</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L9" t="n">
-        <v>850.6182020620834</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="M9" t="n">
-        <v>1263.630217479596</v>
+        <v>623.643757208308</v>
       </c>
       <c r="N9" t="n">
-        <v>1849.128222486198</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O9" t="n">
-        <v>2365.648505077179</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.648505077179</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>763.5519739517948</v>
+        <v>714.3085921423267</v>
       </c>
       <c r="C10" t="n">
-        <v>593.346856017784</v>
+        <v>714.3085921423267</v>
       </c>
       <c r="D10" t="n">
-        <v>437.7137429202988</v>
+        <v>714.3085921423267</v>
       </c>
       <c r="E10" t="n">
-        <v>282.1549307795013</v>
+        <v>558.7497800015292</v>
       </c>
       <c r="F10" t="n">
-        <v>124.8289959924742</v>
+        <v>401.4238452145021</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>233.1697913139477</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4986,28 +4986,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>714.3085921423267</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>714.3085921423267</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>714.3085921423267</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>714.3085921423267</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>714.3085921423267</v>
       </c>
       <c r="X10" t="n">
-        <v>948.7599926430961</v>
+        <v>714.3085921423267</v>
       </c>
       <c r="Y10" t="n">
-        <v>948.7599926430961</v>
+        <v>714.3085921423267</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1880.448588251432</v>
+        <v>1401.153328221251</v>
       </c>
       <c r="C11" t="n">
-        <v>1580.585795766647</v>
+        <v>1101.290535736466</v>
       </c>
       <c r="D11" t="n">
-        <v>1288.457375995599</v>
+        <v>809.1621159654183</v>
       </c>
       <c r="E11" t="n">
-        <v>979.1865601244281</v>
+        <v>499.8913000942472</v>
       </c>
       <c r="F11" t="n">
-        <v>655.6048306666902</v>
+        <v>499.8913000942472</v>
       </c>
       <c r="G11" t="n">
-        <v>335.8350249779048</v>
+        <v>293.9041009459206</v>
       </c>
       <c r="H11" t="n">
-        <v>105.8864497615869</v>
+        <v>63.9555257296027</v>
       </c>
       <c r="I11" t="n">
         <v>63.9555257296027</v>
       </c>
       <c r="J11" t="n">
-        <v>215.2801114281781</v>
+        <v>215.2801114281783</v>
       </c>
       <c r="K11" t="n">
-        <v>584.2662815607526</v>
+        <v>584.2662815607525</v>
       </c>
       <c r="L11" t="n">
         <v>1089.997189274427</v>
@@ -5056,7 +5056,7 @@
         <v>2191.651223403449</v>
       </c>
       <c r="O11" t="n">
-        <v>2644.94145671662</v>
+        <v>2644.941456716621</v>
       </c>
       <c r="P11" t="n">
         <v>3004.438057055117</v>
@@ -5071,22 +5071,22 @@
         <v>3126.403927912471</v>
       </c>
       <c r="T11" t="n">
-        <v>3064.634847091746</v>
+        <v>2996.567288634005</v>
       </c>
       <c r="U11" t="n">
-        <v>3064.634847091746</v>
+        <v>2834.133687345763</v>
       </c>
       <c r="V11" t="n">
-        <v>3064.634847091746</v>
+        <v>2585.339587061565</v>
       </c>
       <c r="W11" t="n">
-        <v>2786.948521072318</v>
+        <v>2307.653261042137</v>
       </c>
       <c r="X11" t="n">
-        <v>2490.808625017659</v>
+        <v>2011.513364987478</v>
       </c>
       <c r="Y11" t="n">
-        <v>2187.630624950545</v>
+        <v>1708.335364920364</v>
       </c>
     </row>
     <row r="12">
@@ -5123,22 +5123,22 @@
         <v>63.9555257296027</v>
       </c>
       <c r="K12" t="n">
-        <v>63.9555257296027</v>
+        <v>390.4893879606482</v>
       </c>
       <c r="L12" t="n">
-        <v>131.3730228426402</v>
+        <v>883.191808267995</v>
       </c>
       <c r="M12" t="n">
-        <v>769.8063437916095</v>
+        <v>883.191808267995</v>
       </c>
       <c r="N12" t="n">
-        <v>1436.528169039565</v>
+        <v>1196.791824547789</v>
       </c>
       <c r="O12" t="n">
-        <v>1963.059940019331</v>
+        <v>1723.323595527555</v>
       </c>
       <c r="P12" t="n">
-        <v>2376.716410796137</v>
+        <v>2136.980066304361</v>
       </c>
       <c r="Q12" t="n">
         <v>2376.716410796137</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>504.8781491351967</v>
+        <v>504.8781491351968</v>
       </c>
       <c r="C13" t="n">
-        <v>427.9857402134703</v>
+        <v>427.9857402134704</v>
       </c>
       <c r="D13" t="n">
-        <v>365.6653361282694</v>
+        <v>365.6653361282695</v>
       </c>
       <c r="E13" t="n">
-        <v>303.4192329997563</v>
+        <v>303.4192329997564</v>
       </c>
       <c r="F13" t="n">
         <v>239.4060072250137</v>
@@ -5193,7 +5193,7 @@
         <v>164.5006556021369</v>
       </c>
       <c r="H13" t="n">
-        <v>102.6548264264122</v>
+        <v>102.6548264264123</v>
       </c>
       <c r="I13" t="n">
         <v>63.9555257296027</v>
@@ -5205,10 +5205,10 @@
         <v>305.521026238099</v>
       </c>
       <c r="L13" t="n">
-        <v>566.349179927418</v>
+        <v>566.3491799274179</v>
       </c>
       <c r="M13" t="n">
-        <v>849.6263743764491</v>
+        <v>849.6263743764489</v>
       </c>
       <c r="N13" t="n">
         <v>1129.670137520617</v>
@@ -5217,10 +5217,10 @@
         <v>1388.816934182153</v>
       </c>
       <c r="P13" t="n">
-        <v>1604.415478790555</v>
+        <v>1604.415478790554</v>
       </c>
       <c r="Q13" t="n">
-        <v>1702.247428914308</v>
+        <v>1702.247428914307</v>
       </c>
       <c r="R13" t="n">
         <v>1673.277536655854</v>
@@ -5235,16 +5235,16 @@
         <v>1230.024753413448</v>
       </c>
       <c r="V13" t="n">
-        <v>1057.358117246557</v>
+        <v>1057.358117246556</v>
       </c>
       <c r="W13" t="n">
-        <v>867.3404241900184</v>
+        <v>867.340424190018</v>
       </c>
       <c r="X13" t="n">
-        <v>726.572810985286</v>
+        <v>726.5728109852855</v>
       </c>
       <c r="Y13" t="n">
-        <v>596.7734588142137</v>
+        <v>596.7734588142132</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1880.448588251432</v>
+        <v>1764.795927355623</v>
       </c>
       <c r="C14" t="n">
-        <v>1580.585795766647</v>
+        <v>1464.933134870838</v>
       </c>
       <c r="D14" t="n">
-        <v>1288.457375995599</v>
+        <v>1172.80471509979</v>
       </c>
       <c r="E14" t="n">
-        <v>979.1865601244281</v>
+        <v>863.5338992286194</v>
       </c>
       <c r="F14" t="n">
-        <v>655.6048306666902</v>
+        <v>539.9521697708815</v>
       </c>
       <c r="G14" t="n">
-        <v>335.8350249779048</v>
+        <v>220.1823640820961</v>
       </c>
       <c r="H14" t="n">
-        <v>105.8864497615869</v>
+        <v>63.9555257296027</v>
       </c>
       <c r="I14" t="n">
         <v>63.9555257296027</v>
@@ -5281,7 +5281,7 @@
         <v>215.2801114281783</v>
       </c>
       <c r="K14" t="n">
-        <v>584.266281560753</v>
+        <v>584.2662815607528</v>
       </c>
       <c r="L14" t="n">
         <v>1089.997189274428</v>
@@ -5305,25 +5305,25 @@
         <v>3197.776286480135</v>
       </c>
       <c r="S14" t="n">
-        <v>3126.403927912471</v>
+        <v>3197.776286480135</v>
       </c>
       <c r="T14" t="n">
-        <v>3126.403927912471</v>
+        <v>3197.776286480135</v>
       </c>
       <c r="U14" t="n">
-        <v>2963.970326624228</v>
+        <v>3197.776286480135</v>
       </c>
       <c r="V14" t="n">
-        <v>2715.176226340031</v>
+        <v>2948.982186195938</v>
       </c>
       <c r="W14" t="n">
-        <v>2437.489900320603</v>
+        <v>2671.295860176509</v>
       </c>
       <c r="X14" t="n">
-        <v>2183.626588318547</v>
+        <v>2375.155964121851</v>
       </c>
       <c r="Y14" t="n">
-        <v>1880.448588251432</v>
+        <v>2071.977964054736</v>
       </c>
     </row>
     <row r="15">
@@ -5357,22 +5357,22 @@
         <v>63.9555257296027</v>
       </c>
       <c r="J15" t="n">
-        <v>63.9555257296027</v>
+        <v>181.0459807198582</v>
       </c>
       <c r="K15" t="n">
-        <v>63.9555257296027</v>
+        <v>507.5798429509037</v>
       </c>
       <c r="L15" t="n">
-        <v>556.6579460369495</v>
+        <v>1000.282263258251</v>
       </c>
       <c r="M15" t="n">
-        <v>1195.091266985919</v>
+        <v>1436.528169039565</v>
       </c>
       <c r="N15" t="n">
-        <v>1861.813092233874</v>
+        <v>1436.528169039565</v>
       </c>
       <c r="O15" t="n">
-        <v>2376.716410796137</v>
+        <v>1963.059940019331</v>
       </c>
       <c r="P15" t="n">
         <v>2376.716410796137</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>504.8781491351972</v>
+        <v>504.8781491351968</v>
       </c>
       <c r="C16" t="n">
-        <v>427.9857402134708</v>
+        <v>427.9857402134704</v>
       </c>
       <c r="D16" t="n">
-        <v>365.6653361282699</v>
+        <v>365.6653361282695</v>
       </c>
       <c r="E16" t="n">
-        <v>303.4192329997568</v>
+        <v>303.4192329997564</v>
       </c>
       <c r="F16" t="n">
-        <v>239.4060072250142</v>
+        <v>239.4060072250137</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5006556021374</v>
+        <v>164.5006556021369</v>
       </c>
       <c r="H16" t="n">
-        <v>102.6548264264124</v>
+        <v>102.6548264264122</v>
       </c>
       <c r="I16" t="n">
         <v>63.9555257296027</v>
@@ -5439,25 +5439,25 @@
         <v>128.131653093533</v>
       </c>
       <c r="K16" t="n">
-        <v>305.5210262380987</v>
+        <v>305.521026238099</v>
       </c>
       <c r="L16" t="n">
-        <v>566.3491799274177</v>
+        <v>566.3491799274182</v>
       </c>
       <c r="M16" t="n">
-        <v>849.6263743764487</v>
+        <v>849.6263743764491</v>
       </c>
       <c r="N16" t="n">
         <v>1129.670137520617</v>
       </c>
       <c r="O16" t="n">
-        <v>1388.816934182152</v>
+        <v>1388.816934182153</v>
       </c>
       <c r="P16" t="n">
-        <v>1604.415478790554</v>
+        <v>1604.415478790555</v>
       </c>
       <c r="Q16" t="n">
-        <v>1702.247428914307</v>
+        <v>1702.247428914308</v>
       </c>
       <c r="R16" t="n">
         <v>1673.277536655854</v>
@@ -5475,13 +5475,13 @@
         <v>1057.358117246557</v>
       </c>
       <c r="W16" t="n">
-        <v>867.3404241900188</v>
+        <v>867.3404241900184</v>
       </c>
       <c r="X16" t="n">
-        <v>726.5728109852863</v>
+        <v>726.572810985286</v>
       </c>
       <c r="Y16" t="n">
-        <v>596.7734588142141</v>
+        <v>596.7734588142138</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1838.517664219448</v>
+        <v>1650.500013035114</v>
       </c>
       <c r="C17" t="n">
-        <v>1538.654871734663</v>
+        <v>1350.637220550329</v>
       </c>
       <c r="D17" t="n">
-        <v>1246.526451963615</v>
+        <v>1058.508800779281</v>
       </c>
       <c r="E17" t="n">
-        <v>937.255636092444</v>
+        <v>749.2379849081102</v>
       </c>
       <c r="F17" t="n">
-        <v>613.6739066347061</v>
+        <v>425.6562554503723</v>
       </c>
       <c r="G17" t="n">
-        <v>293.9041009459207</v>
+        <v>105.8864497615869</v>
       </c>
       <c r="H17" t="n">
-        <v>63.9555257296027</v>
+        <v>105.8864497615869</v>
       </c>
       <c r="I17" t="n">
         <v>63.9555257296027</v>
       </c>
       <c r="J17" t="n">
-        <v>215.2801114281779</v>
+        <v>215.2801114281781</v>
       </c>
       <c r="K17" t="n">
-        <v>584.2662815607524</v>
+        <v>584.2662815607526</v>
       </c>
       <c r="L17" t="n">
-        <v>1089.997189274427</v>
+        <v>1089.997189274428</v>
       </c>
       <c r="M17" t="n">
-        <v>1649.807290883305</v>
+        <v>1649.807290883304</v>
       </c>
       <c r="N17" t="n">
         <v>2191.651223403449</v>
@@ -5545,22 +5545,22 @@
         <v>3197.776286480135</v>
       </c>
       <c r="T17" t="n">
-        <v>3197.776286480135</v>
+        <v>3083.480372159626</v>
       </c>
       <c r="U17" t="n">
-        <v>3197.776286480135</v>
+        <v>3083.480372159626</v>
       </c>
       <c r="V17" t="n">
-        <v>3022.703923059762</v>
+        <v>2834.686271875429</v>
       </c>
       <c r="W17" t="n">
-        <v>2745.017597040334</v>
+        <v>2556.999945856001</v>
       </c>
       <c r="X17" t="n">
-        <v>2448.877700985675</v>
+        <v>2260.860049801342</v>
       </c>
       <c r="Y17" t="n">
-        <v>2145.699700918561</v>
+        <v>1957.682049734227</v>
       </c>
     </row>
     <row r="18">
@@ -5597,22 +5597,22 @@
         <v>63.9555257296027</v>
       </c>
       <c r="K18" t="n">
-        <v>63.9555257296027</v>
+        <v>390.4893879606482</v>
       </c>
       <c r="L18" t="n">
-        <v>63.9555257296027</v>
+        <v>883.191808267995</v>
       </c>
       <c r="M18" t="n">
-        <v>702.388846678572</v>
+        <v>1436.528169039565</v>
       </c>
       <c r="N18" t="n">
-        <v>1369.110671926527</v>
+        <v>1436.528169039565</v>
       </c>
       <c r="O18" t="n">
-        <v>1895.642442906294</v>
+        <v>1963.059940019331</v>
       </c>
       <c r="P18" t="n">
-        <v>2309.2989136831</v>
+        <v>2376.716410796137</v>
       </c>
       <c r="Q18" t="n">
         <v>2376.716410796137</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>504.8781491351971</v>
+        <v>504.878149135197</v>
       </c>
       <c r="C19" t="n">
-        <v>427.9857402134706</v>
+        <v>427.9857402134705</v>
       </c>
       <c r="D19" t="n">
-        <v>365.6653361282698</v>
+        <v>365.6653361282696</v>
       </c>
       <c r="E19" t="n">
-        <v>303.4192329997566</v>
+        <v>303.4192329997565</v>
       </c>
       <c r="F19" t="n">
-        <v>239.4060072250139</v>
+        <v>239.4060072250138</v>
       </c>
       <c r="G19" t="n">
         <v>164.500655602137</v>
@@ -5673,28 +5673,28 @@
         <v>63.9555257296027</v>
       </c>
       <c r="J19" t="n">
-        <v>128.1316530935328</v>
+        <v>128.131653093533</v>
       </c>
       <c r="K19" t="n">
-        <v>305.5210262380988</v>
+        <v>305.521026238099</v>
       </c>
       <c r="L19" t="n">
-        <v>566.3491799274175</v>
+        <v>566.3491799274179</v>
       </c>
       <c r="M19" t="n">
-        <v>849.6263743764486</v>
+        <v>849.626374376449</v>
       </c>
       <c r="N19" t="n">
-        <v>1129.670137520616</v>
+        <v>1129.670137520617</v>
       </c>
       <c r="O19" t="n">
-        <v>1388.816934182152</v>
+        <v>1388.816934182153</v>
       </c>
       <c r="P19" t="n">
-        <v>1604.415478790554</v>
+        <v>1604.415478790555</v>
       </c>
       <c r="Q19" t="n">
-        <v>1702.247428914307</v>
+        <v>1702.247428914308</v>
       </c>
       <c r="R19" t="n">
         <v>1673.277536655854</v>
@@ -5715,10 +5715,10 @@
         <v>867.3404241900189</v>
       </c>
       <c r="X19" t="n">
-        <v>726.5728109852864</v>
+        <v>726.5728109852863</v>
       </c>
       <c r="Y19" t="n">
-        <v>596.773458814214</v>
+        <v>596.7734588142139</v>
       </c>
     </row>
     <row r="20">
@@ -5731,34 +5731,34 @@
         <v>1401.153328221251</v>
       </c>
       <c r="C20" t="n">
-        <v>1101.290535736466</v>
+        <v>1308.706296518345</v>
       </c>
       <c r="D20" t="n">
-        <v>809.162115965418</v>
+        <v>1016.577876747297</v>
       </c>
       <c r="E20" t="n">
-        <v>499.8913000942469</v>
+        <v>707.307060876126</v>
       </c>
       <c r="F20" t="n">
-        <v>499.8913000942469</v>
+        <v>383.7253314183881</v>
       </c>
       <c r="G20" t="n">
-        <v>335.8350249779049</v>
+        <v>63.9555257296027</v>
       </c>
       <c r="H20" t="n">
-        <v>105.8864497615869</v>
+        <v>63.9555257296027</v>
       </c>
       <c r="I20" t="n">
         <v>63.9555257296027</v>
       </c>
       <c r="J20" t="n">
-        <v>215.2801114281783</v>
+        <v>215.280111428178</v>
       </c>
       <c r="K20" t="n">
         <v>584.2662815607525</v>
       </c>
       <c r="L20" t="n">
-        <v>1089.997189274427</v>
+        <v>1089.997189274428</v>
       </c>
       <c r="M20" t="n">
         <v>1649.807290883305</v>
@@ -5840,13 +5840,13 @@
         <v>673.748401027205</v>
       </c>
       <c r="M21" t="n">
-        <v>1196.791824547789</v>
+        <v>673.748401027205</v>
       </c>
       <c r="N21" t="n">
         <v>1196.791824547789</v>
       </c>
       <c r="O21" t="n">
-        <v>1723.323595527555</v>
+        <v>1723.323595527556</v>
       </c>
       <c r="P21" t="n">
         <v>2136.980066304361</v>
@@ -5910,13 +5910,13 @@
         <v>63.9555257296027</v>
       </c>
       <c r="J22" t="n">
-        <v>128.131653093533</v>
+        <v>128.1316530935329</v>
       </c>
       <c r="K22" t="n">
         <v>305.5210262380989</v>
       </c>
       <c r="L22" t="n">
-        <v>566.3491799274179</v>
+        <v>566.3491799274178</v>
       </c>
       <c r="M22" t="n">
         <v>849.6263743764489</v>
@@ -5925,10 +5925,10 @@
         <v>1129.670137520617</v>
       </c>
       <c r="O22" t="n">
-        <v>1388.816934182153</v>
+        <v>1388.816934182152</v>
       </c>
       <c r="P22" t="n">
-        <v>1604.415478790555</v>
+        <v>1604.415478790554</v>
       </c>
       <c r="Q22" t="n">
         <v>1702.247428914308</v>
@@ -5989,10 +5989,10 @@
         <v>63.9555257296027</v>
       </c>
       <c r="J23" t="n">
-        <v>215.2801114281783</v>
+        <v>215.2801114281779</v>
       </c>
       <c r="K23" t="n">
-        <v>584.2662815607525</v>
+        <v>584.2662815607524</v>
       </c>
       <c r="L23" t="n">
         <v>1089.997189274427</v>
@@ -6068,25 +6068,25 @@
         <v>63.9555257296027</v>
       </c>
       <c r="J24" t="n">
-        <v>63.9555257296027</v>
+        <v>181.0459807198582</v>
       </c>
       <c r="K24" t="n">
-        <v>63.9555257296027</v>
+        <v>507.5798429509037</v>
       </c>
       <c r="L24" t="n">
-        <v>556.6579460369495</v>
+        <v>1000.282263258251</v>
       </c>
       <c r="M24" t="n">
-        <v>1195.091266985919</v>
+        <v>1000.282263258251</v>
       </c>
       <c r="N24" t="n">
-        <v>1861.813092233874</v>
+        <v>1196.791824547789</v>
       </c>
       <c r="O24" t="n">
-        <v>2376.716410796137</v>
+        <v>1723.323595527555</v>
       </c>
       <c r="P24" t="n">
-        <v>2376.716410796137</v>
+        <v>2136.980066304361</v>
       </c>
       <c r="Q24" t="n">
         <v>2376.716410796137</v>
@@ -6147,10 +6147,10 @@
         <v>63.9555257296027</v>
       </c>
       <c r="J25" t="n">
-        <v>128.1316530935337</v>
+        <v>128.131653093533</v>
       </c>
       <c r="K25" t="n">
-        <v>305.5210262380997</v>
+        <v>305.5210262380989</v>
       </c>
       <c r="L25" t="n">
         <v>566.3491799274186</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1704.331328288366</v>
+        <v>1608.56908900313</v>
       </c>
       <c r="C26" t="n">
-        <v>1404.468535803581</v>
+        <v>1308.706296518345</v>
       </c>
       <c r="D26" t="n">
-        <v>1112.340116032533</v>
+        <v>1016.577876747297</v>
       </c>
       <c r="E26" t="n">
-        <v>803.0693001613619</v>
+        <v>707.307060876126</v>
       </c>
       <c r="F26" t="n">
-        <v>479.487570703624</v>
+        <v>383.7253314183881</v>
       </c>
       <c r="G26" t="n">
-        <v>159.7177650148386</v>
+        <v>63.9555257296027</v>
       </c>
       <c r="H26" t="n">
         <v>63.9555257296027</v>
@@ -6253,25 +6253,25 @@
         <v>3197.776286480135</v>
       </c>
       <c r="S26" t="n">
-        <v>3126.403927912471</v>
+        <v>3171.386087406107</v>
       </c>
       <c r="T26" t="n">
-        <v>2996.567288634005</v>
+        <v>3041.549448127641</v>
       </c>
       <c r="U26" t="n">
-        <v>2834.133687345763</v>
+        <v>3041.549448127641</v>
       </c>
       <c r="V26" t="n">
-        <v>2585.339587061565</v>
+        <v>2792.755347843444</v>
       </c>
       <c r="W26" t="n">
-        <v>2307.653261042137</v>
+        <v>2515.069021824016</v>
       </c>
       <c r="X26" t="n">
-        <v>2011.513364987478</v>
+        <v>2218.929125769357</v>
       </c>
       <c r="Y26" t="n">
-        <v>2011.513364987478</v>
+        <v>1915.751125702243</v>
       </c>
     </row>
     <row r="27">
@@ -6305,16 +6305,16 @@
         <v>63.9555257296027</v>
       </c>
       <c r="J27" t="n">
-        <v>63.9555257296027</v>
+        <v>181.0459807198582</v>
       </c>
       <c r="K27" t="n">
-        <v>390.4893879606482</v>
+        <v>507.5798429509037</v>
       </c>
       <c r="L27" t="n">
-        <v>883.191808267995</v>
+        <v>1000.282263258251</v>
       </c>
       <c r="M27" t="n">
-        <v>883.191808267995</v>
+        <v>1196.791824547789</v>
       </c>
       <c r="N27" t="n">
         <v>1196.791824547789</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.8781491351968</v>
+        <v>504.8781491351966</v>
       </c>
       <c r="C28" t="n">
-        <v>427.9857402134704</v>
+        <v>427.9857402134702</v>
       </c>
       <c r="D28" t="n">
-        <v>365.6653361282695</v>
+        <v>365.6653361282693</v>
       </c>
       <c r="E28" t="n">
-        <v>303.4192329997564</v>
+        <v>303.4192329997562</v>
       </c>
       <c r="F28" t="n">
-        <v>239.4060072250137</v>
+        <v>239.4060072250135</v>
       </c>
       <c r="G28" t="n">
         <v>164.500655602137</v>
@@ -6390,10 +6390,10 @@
         <v>305.521026238099</v>
       </c>
       <c r="L28" t="n">
-        <v>566.3491799274182</v>
+        <v>566.3491799274179</v>
       </c>
       <c r="M28" t="n">
-        <v>849.6263743764491</v>
+        <v>849.626374376449</v>
       </c>
       <c r="N28" t="n">
         <v>1129.670137520617</v>
@@ -6402,10 +6402,10 @@
         <v>1388.816934182153</v>
       </c>
       <c r="P28" t="n">
-        <v>1604.415478790555</v>
+        <v>1604.415478790554</v>
       </c>
       <c r="Q28" t="n">
-        <v>1702.247428914308</v>
+        <v>1702.247428914307</v>
       </c>
       <c r="R28" t="n">
         <v>1673.277536655854</v>
@@ -6426,10 +6426,10 @@
         <v>867.3404241900184</v>
       </c>
       <c r="X28" t="n">
-        <v>726.572810985286</v>
+        <v>726.5728109852859</v>
       </c>
       <c r="Y28" t="n">
-        <v>596.7734588142138</v>
+        <v>596.7734588142135</v>
       </c>
     </row>
     <row r="29">
@@ -6451,25 +6451,25 @@
         <v>499.8913000942472</v>
       </c>
       <c r="F29" t="n">
-        <v>176.3095706365093</v>
+        <v>499.8913000942472</v>
       </c>
       <c r="G29" t="n">
-        <v>63.9555257296027</v>
+        <v>335.8350249779048</v>
       </c>
       <c r="H29" t="n">
-        <v>63.9555257296027</v>
+        <v>105.8864497615869</v>
       </c>
       <c r="I29" t="n">
         <v>63.9555257296027</v>
       </c>
       <c r="J29" t="n">
-        <v>215.2801114281779</v>
+        <v>215.2801114281783</v>
       </c>
       <c r="K29" t="n">
-        <v>584.2662815607525</v>
+        <v>584.2662815607528</v>
       </c>
       <c r="L29" t="n">
-        <v>1089.997189274427</v>
+        <v>1089.997189274428</v>
       </c>
       <c r="M29" t="n">
         <v>1649.807290883305</v>
@@ -6542,25 +6542,25 @@
         <v>63.9555257296027</v>
       </c>
       <c r="J30" t="n">
-        <v>63.9555257296027</v>
+        <v>181.0459807198582</v>
       </c>
       <c r="K30" t="n">
-        <v>63.9555257296027</v>
+        <v>507.5798429509037</v>
       </c>
       <c r="L30" t="n">
-        <v>545.029493619446</v>
+        <v>1000.282263258251</v>
       </c>
       <c r="M30" t="n">
-        <v>1183.462814568415</v>
+        <v>1000.282263258251</v>
       </c>
       <c r="N30" t="n">
-        <v>1850.18463981637</v>
+        <v>1196.791824547789</v>
       </c>
       <c r="O30" t="n">
-        <v>2376.716410796137</v>
+        <v>1723.323595527555</v>
       </c>
       <c r="P30" t="n">
-        <v>2376.716410796137</v>
+        <v>2136.980066304361</v>
       </c>
       <c r="Q30" t="n">
         <v>2376.716410796137</v>
@@ -6621,16 +6621,16 @@
         <v>63.9555257296027</v>
       </c>
       <c r="J31" t="n">
-        <v>128.1316530935328</v>
+        <v>128.131653093533</v>
       </c>
       <c r="K31" t="n">
-        <v>305.5210262380988</v>
+        <v>305.521026238099</v>
       </c>
       <c r="L31" t="n">
-        <v>566.3491799274177</v>
+        <v>566.3491799274179</v>
       </c>
       <c r="M31" t="n">
-        <v>849.6263743764489</v>
+        <v>849.6263743764491</v>
       </c>
       <c r="N31" t="n">
         <v>1129.670137520617</v>
@@ -6642,7 +6642,7 @@
         <v>1604.415478790554</v>
       </c>
       <c r="Q31" t="n">
-        <v>1702.247428914307</v>
+        <v>1702.247428914308</v>
       </c>
       <c r="R31" t="n">
         <v>1673.277536655854</v>
@@ -6685,16 +6685,16 @@
         <v>1128.692289318872</v>
       </c>
       <c r="E32" t="n">
-        <v>851.3744907830462</v>
+        <v>851.3744907830464</v>
       </c>
       <c r="F32" t="n">
-        <v>559.7457786606539</v>
+        <v>559.745778660654</v>
       </c>
       <c r="G32" t="n">
-        <v>271.9289903072139</v>
+        <v>271.928990307214</v>
       </c>
       <c r="H32" t="n">
-        <v>73.93343242624141</v>
+        <v>73.93343242624147</v>
       </c>
       <c r="I32" t="n">
         <v>63.9555257296027</v>
@@ -6703,10 +6703,10 @@
         <v>215.2801114281783</v>
       </c>
       <c r="K32" t="n">
-        <v>584.2662815607528</v>
+        <v>584.2662815607525</v>
       </c>
       <c r="L32" t="n">
-        <v>1089.997189274428</v>
+        <v>1089.997189274427</v>
       </c>
       <c r="M32" t="n">
         <v>1649.807290883305</v>
@@ -6788,7 +6788,7 @@
         <v>1000.282263258251</v>
       </c>
       <c r="M33" t="n">
-        <v>1000.282263258251</v>
+        <v>1196.791824547789</v>
       </c>
       <c r="N33" t="n">
         <v>1196.791824547789</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>281.2070277877785</v>
+        <v>281.2070277877789</v>
       </c>
       <c r="C34" t="n">
-        <v>236.2676362013975</v>
+        <v>236.2676362013979</v>
       </c>
       <c r="D34" t="n">
-        <v>205.9002494515421</v>
+        <v>205.9002494515424</v>
       </c>
       <c r="E34" t="n">
-        <v>175.6071636583745</v>
+        <v>175.6071636583747</v>
       </c>
       <c r="F34" t="n">
-        <v>143.5469552189773</v>
+        <v>143.5469552189774</v>
       </c>
       <c r="G34" t="n">
-        <v>100.594620931446</v>
+        <v>100.5946209314461</v>
       </c>
       <c r="H34" t="n">
-        <v>70.70180909106678</v>
+        <v>70.70180909106683</v>
       </c>
       <c r="I34" t="n">
         <v>63.9555257296027</v>
       </c>
       <c r="J34" t="n">
-        <v>137.2840651321646</v>
+        <v>63.9555257296027</v>
       </c>
       <c r="K34" t="n">
-        <v>223.2176521737907</v>
+        <v>149.8891127712288</v>
       </c>
       <c r="L34" t="n">
-        <v>392.5900197601698</v>
+        <v>319.2614803576079</v>
       </c>
       <c r="M34" t="n">
-        <v>584.4114281062609</v>
+        <v>511.082888703699</v>
       </c>
       <c r="N34" t="n">
-        <v>772.9994051474889</v>
+        <v>699.670865744927</v>
       </c>
       <c r="O34" t="n">
-        <v>940.6904157060848</v>
+        <v>867.3618763035229</v>
       </c>
       <c r="P34" t="n">
-        <v>1064.833174211547</v>
+        <v>1114.277573202296</v>
       </c>
       <c r="Q34" t="n">
-        <v>1193.982276625672</v>
+        <v>1193.982276625673</v>
       </c>
       <c r="R34" t="n">
-        <v>1193.982276625672</v>
+        <v>1193.982276625673</v>
       </c>
       <c r="S34" t="n">
         <v>1117.059183608206</v>
       </c>
       <c r="T34" t="n">
-        <v>1006.75964753075</v>
+        <v>1006.759647530751</v>
       </c>
       <c r="U34" t="n">
-        <v>846.5885453893022</v>
+        <v>846.5885453893029</v>
       </c>
       <c r="V34" t="n">
-        <v>705.8749265577563</v>
+        <v>705.8749265577569</v>
       </c>
       <c r="W34" t="n">
-        <v>547.8102508365638</v>
+        <v>547.8102508365644</v>
       </c>
       <c r="X34" t="n">
-        <v>438.9956549671767</v>
+        <v>438.9956549671772</v>
       </c>
       <c r="Y34" t="n">
-        <v>341.1493201314499</v>
+        <v>341.1493201314504</v>
       </c>
     </row>
     <row r="35">
@@ -6922,28 +6922,28 @@
         <v>1128.692289318872</v>
       </c>
       <c r="E35" t="n">
-        <v>851.374490783046</v>
+        <v>851.3744907830464</v>
       </c>
       <c r="F35" t="n">
-        <v>559.7457786606539</v>
+        <v>559.745778660654</v>
       </c>
       <c r="G35" t="n">
-        <v>271.9289903072139</v>
+        <v>271.928990307214</v>
       </c>
       <c r="H35" t="n">
-        <v>73.9334324262414</v>
+        <v>73.93343242624147</v>
       </c>
       <c r="I35" t="n">
         <v>63.9555257296027</v>
       </c>
       <c r="J35" t="n">
-        <v>215.2801114281782</v>
+        <v>215.2801114281779</v>
       </c>
       <c r="K35" t="n">
-        <v>584.2662815607528</v>
+        <v>584.2662815607524</v>
       </c>
       <c r="L35" t="n">
-        <v>1089.997189274428</v>
+        <v>1089.997189274427</v>
       </c>
       <c r="M35" t="n">
         <v>1649.807290883305</v>
@@ -6970,13 +6970,13 @@
         <v>3060.473323304696</v>
       </c>
       <c r="U35" t="n">
-        <v>2929.992739351797</v>
+        <v>2929.992739351798</v>
       </c>
       <c r="V35" t="n">
         <v>2713.151656402946</v>
       </c>
       <c r="W35" t="n">
-        <v>2467.418347718863</v>
+        <v>2467.418347718864</v>
       </c>
       <c r="X35" t="n">
         <v>2203.23146899955</v>
@@ -7025,16 +7025,16 @@
         <v>883.191808267995</v>
       </c>
       <c r="M36" t="n">
-        <v>883.191808267995</v>
+        <v>1196.791824547789</v>
       </c>
       <c r="N36" t="n">
-        <v>1436.528169039565</v>
+        <v>1196.791824547789</v>
       </c>
       <c r="O36" t="n">
-        <v>1963.059940019331</v>
+        <v>1723.323595527555</v>
       </c>
       <c r="P36" t="n">
-        <v>2376.716410796137</v>
+        <v>2136.980066304361</v>
       </c>
       <c r="Q36" t="n">
         <v>2376.716410796137</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>281.2070277877785</v>
+        <v>281.2070277877789</v>
       </c>
       <c r="C37" t="n">
-        <v>236.2676362013975</v>
+        <v>236.2676362013979</v>
       </c>
       <c r="D37" t="n">
-        <v>205.9002494515421</v>
+        <v>205.9002494515424</v>
       </c>
       <c r="E37" t="n">
-        <v>175.6071636583745</v>
+        <v>175.6071636583747</v>
       </c>
       <c r="F37" t="n">
-        <v>143.5469552189773</v>
+        <v>143.5469552189774</v>
       </c>
       <c r="G37" t="n">
-        <v>100.594620931446</v>
+        <v>100.5946209314461</v>
       </c>
       <c r="H37" t="n">
-        <v>70.70180909106678</v>
+        <v>70.70180909106683</v>
       </c>
       <c r="I37" t="n">
         <v>63.9555257296027</v>
       </c>
       <c r="J37" t="n">
-        <v>137.2840651321646</v>
+        <v>137.2840651321654</v>
       </c>
       <c r="K37" t="n">
-        <v>223.2176521737907</v>
+        <v>223.2176521737915</v>
       </c>
       <c r="L37" t="n">
-        <v>392.5900197601698</v>
+        <v>515.3629581534825</v>
       </c>
       <c r="M37" t="n">
-        <v>584.4114281062609</v>
+        <v>707.1843664995737</v>
       </c>
       <c r="N37" t="n">
-        <v>772.9994051474889</v>
+        <v>895.7723435408017</v>
       </c>
       <c r="O37" t="n">
-        <v>940.6904157060848</v>
+        <v>1063.463354099398</v>
       </c>
       <c r="P37" t="n">
-        <v>1064.833174211547</v>
+        <v>1187.606112604859</v>
       </c>
       <c r="Q37" t="n">
-        <v>1193.982276625672</v>
+        <v>1193.982276625673</v>
       </c>
       <c r="R37" t="n">
-        <v>1193.982276625672</v>
+        <v>1193.982276625673</v>
       </c>
       <c r="S37" t="n">
         <v>1117.059183608206</v>
       </c>
       <c r="T37" t="n">
-        <v>1006.75964753075</v>
+        <v>1006.759647530751</v>
       </c>
       <c r="U37" t="n">
-        <v>846.5885453893022</v>
+        <v>846.5885453893029</v>
       </c>
       <c r="V37" t="n">
-        <v>705.8749265577563</v>
+        <v>705.8749265577569</v>
       </c>
       <c r="W37" t="n">
-        <v>547.8102508365638</v>
+        <v>547.8102508365644</v>
       </c>
       <c r="X37" t="n">
-        <v>438.9956549671767</v>
+        <v>438.9956549671772</v>
       </c>
       <c r="Y37" t="n">
-        <v>341.1493201314499</v>
+        <v>341.1493201314504</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1656.777466904015</v>
+        <v>1656.777466904014</v>
       </c>
       <c r="C38" t="n">
-        <v>1388.867691754576</v>
+        <v>1388.867691754574</v>
       </c>
       <c r="D38" t="n">
-        <v>1128.692289318873</v>
+        <v>1128.692289318872</v>
       </c>
       <c r="E38" t="n">
-        <v>851.3744907830476</v>
+        <v>851.3744907830464</v>
       </c>
       <c r="F38" t="n">
-        <v>559.7457786606551</v>
+        <v>559.745778660654</v>
       </c>
       <c r="G38" t="n">
-        <v>271.9289903072151</v>
+        <v>271.928990307214</v>
       </c>
       <c r="H38" t="n">
-        <v>73.93343242624266</v>
+        <v>73.93343242624145</v>
       </c>
       <c r="I38" t="n">
         <v>63.9555257296027</v>
       </c>
       <c r="J38" t="n">
-        <v>215.2801114281779</v>
+        <v>215.280111428178</v>
       </c>
       <c r="K38" t="n">
-        <v>584.2662815607524</v>
+        <v>584.2662815607525</v>
       </c>
       <c r="L38" t="n">
-        <v>1089.997189274427</v>
+        <v>1089.997189274428</v>
       </c>
       <c r="M38" t="n">
         <v>1649.807290883305</v>
@@ -7207,19 +7207,19 @@
         <v>3060.473323304696</v>
       </c>
       <c r="U38" t="n">
-        <v>2929.992739351799</v>
+        <v>2929.992739351798</v>
       </c>
       <c r="V38" t="n">
-        <v>2713.151656402948</v>
+        <v>2713.151656402946</v>
       </c>
       <c r="W38" t="n">
-        <v>2467.418347718865</v>
+        <v>2467.418347718864</v>
       </c>
       <c r="X38" t="n">
-        <v>2203.231468999551</v>
+        <v>2203.23146899955</v>
       </c>
       <c r="Y38" t="n">
-        <v>1932.006486267782</v>
+        <v>1932.006486267781</v>
       </c>
     </row>
     <row r="39">
@@ -7259,19 +7259,19 @@
         <v>390.4893879606482</v>
       </c>
       <c r="L39" t="n">
-        <v>390.4893879606482</v>
+        <v>530.0699992998336</v>
       </c>
       <c r="M39" t="n">
-        <v>1028.922708909618</v>
+        <v>530.0699992998336</v>
       </c>
       <c r="N39" t="n">
-        <v>1695.644534157573</v>
+        <v>1196.791824547789</v>
       </c>
       <c r="O39" t="n">
-        <v>2222.17630513734</v>
+        <v>1723.323595527555</v>
       </c>
       <c r="P39" t="n">
-        <v>2376.716410796137</v>
+        <v>2136.980066304361</v>
       </c>
       <c r="Q39" t="n">
         <v>2376.716410796137</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2285.001037642242</v>
+        <v>281.2070277877789</v>
       </c>
       <c r="C40" t="n">
-        <v>2240.061646055861</v>
+        <v>236.2676362013979</v>
       </c>
       <c r="D40" t="n">
-        <v>2209.694259306005</v>
+        <v>205.9002494515424</v>
       </c>
       <c r="E40" t="n">
-        <v>2179.401173512837</v>
+        <v>175.6071636583747</v>
       </c>
       <c r="F40" t="n">
-        <v>2147.34096507344</v>
+        <v>143.5469552189774</v>
       </c>
       <c r="G40" t="n">
-        <v>2104.388630785909</v>
+        <v>100.5946209314461</v>
       </c>
       <c r="H40" t="n">
-        <v>2074.49581894553</v>
+        <v>70.70180909106683</v>
       </c>
       <c r="I40" t="n">
-        <v>2067.749535584066</v>
+        <v>63.9555257296027</v>
       </c>
       <c r="J40" t="n">
-        <v>2141.078074986628</v>
+        <v>159.448805383905</v>
       </c>
       <c r="K40" t="n">
-        <v>2227.011662028254</v>
+        <v>345.9905905671034</v>
       </c>
       <c r="L40" t="n">
-        <v>2396.384029614633</v>
+        <v>515.3629581534825</v>
       </c>
       <c r="M40" t="n">
-        <v>2588.205437960724</v>
+        <v>707.1843664995737</v>
       </c>
       <c r="N40" t="n">
-        <v>2776.793415001952</v>
+        <v>895.7723435408017</v>
       </c>
       <c r="O40" t="n">
-        <v>2944.484425560548</v>
+        <v>1063.463354099398</v>
       </c>
       <c r="P40" t="n">
-        <v>3068.627184066009</v>
+        <v>1187.606112604859</v>
       </c>
       <c r="Q40" t="n">
-        <v>3197.776286480135</v>
+        <v>1193.982276625673</v>
       </c>
       <c r="R40" t="n">
-        <v>3197.776286480135</v>
+        <v>1193.982276625673</v>
       </c>
       <c r="S40" t="n">
-        <v>3120.853193462669</v>
+        <v>1117.059183608206</v>
       </c>
       <c r="T40" t="n">
-        <v>3010.553657385213</v>
+        <v>1006.759647530751</v>
       </c>
       <c r="U40" t="n">
-        <v>2850.382555243766</v>
+        <v>846.5885453893029</v>
       </c>
       <c r="V40" t="n">
-        <v>2709.66893641222</v>
+        <v>705.8749265577569</v>
       </c>
       <c r="W40" t="n">
-        <v>2551.604260691027</v>
+        <v>547.8102508365644</v>
       </c>
       <c r="X40" t="n">
-        <v>2442.78966482164</v>
+        <v>438.9956549671772</v>
       </c>
       <c r="Y40" t="n">
-        <v>2344.943329985913</v>
+        <v>341.1493201314504</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1278.817523181791</v>
+        <v>1121.334711123261</v>
       </c>
       <c r="C41" t="n">
-        <v>1278.817523181791</v>
+        <v>1121.334711123261</v>
       </c>
       <c r="D41" t="n">
-        <v>1278.817523181791</v>
+        <v>1121.334711123261</v>
       </c>
       <c r="E41" t="n">
-        <v>1224.625326832184</v>
+        <v>1121.334711123261</v>
       </c>
       <c r="F41" t="n">
-        <v>839.683905697507</v>
+        <v>736.3932899885839</v>
       </c>
       <c r="G41" t="n">
-        <v>458.5544083317827</v>
+        <v>355.2637926228596</v>
       </c>
       <c r="H41" t="n">
-        <v>167.2461414385258</v>
+        <v>63.9555257296027</v>
       </c>
       <c r="I41" t="n">
         <v>63.9555257296027</v>
       </c>
       <c r="J41" t="n">
-        <v>215.2801114281782</v>
+        <v>215.280111428178</v>
       </c>
       <c r="K41" t="n">
-        <v>584.2662815607528</v>
+        <v>584.2662815607525</v>
       </c>
       <c r="L41" t="n">
         <v>1089.997189274428</v>
@@ -7441,22 +7441,22 @@
         <v>3065.044236235532</v>
       </c>
       <c r="T41" t="n">
-        <v>2873.847905280128</v>
+        <v>2873.847905280127</v>
       </c>
       <c r="U41" t="n">
-        <v>2650.054612314946</v>
+        <v>2650.054612314945</v>
       </c>
       <c r="V41" t="n">
-        <v>2339.90082035381</v>
+        <v>2339.900820353809</v>
       </c>
       <c r="W41" t="n">
-        <v>2000.854802657443</v>
+        <v>2000.854802657441</v>
       </c>
       <c r="X41" t="n">
-        <v>1643.355214925845</v>
+        <v>1643.355214925844</v>
       </c>
       <c r="Y41" t="n">
-        <v>1278.817523181791</v>
+        <v>1278.81752318179</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>63.9555257296027</v>
       </c>
       <c r="J42" t="n">
-        <v>63.9555257296027</v>
+        <v>181.0459807198582</v>
       </c>
       <c r="K42" t="n">
-        <v>63.9555257296027</v>
+        <v>181.0459807198582</v>
       </c>
       <c r="L42" t="n">
-        <v>131.3730228426402</v>
+        <v>181.0459807198582</v>
       </c>
       <c r="M42" t="n">
-        <v>769.8063437916095</v>
+        <v>819.4793016688275</v>
       </c>
       <c r="N42" t="n">
-        <v>1436.528169039565</v>
+        <v>1486.201126916782</v>
       </c>
       <c r="O42" t="n">
-        <v>1963.059940019331</v>
+        <v>2012.732897896549</v>
       </c>
       <c r="P42" t="n">
-        <v>2376.716410796137</v>
+        <v>2136.980066304361</v>
       </c>
       <c r="Q42" t="n">
         <v>2376.716410796137</v>
@@ -7569,19 +7569,19 @@
         <v>63.9555257296027</v>
       </c>
       <c r="J43" t="n">
-        <v>67.99301928096514</v>
+        <v>67.99301928096511</v>
       </c>
       <c r="K43" t="n">
-        <v>185.2437586129633</v>
+        <v>185.2437586129632</v>
       </c>
       <c r="L43" t="n">
-        <v>385.9332784897144</v>
+        <v>385.9332784897143</v>
       </c>
       <c r="M43" t="n">
-        <v>609.0718391261777</v>
+        <v>609.0718391261776</v>
       </c>
       <c r="N43" t="n">
-        <v>828.9769684577777</v>
+        <v>828.9769684577776</v>
       </c>
       <c r="O43" t="n">
         <v>1027.985131306746</v>
@@ -7593,22 +7593,22 @@
         <v>1221.138358413765</v>
       </c>
       <c r="R43" t="n">
-        <v>1130.808774478372</v>
+        <v>1221.138358413765</v>
       </c>
       <c r="S43" t="n">
-        <v>960.5729724486215</v>
+        <v>1208.582599432054</v>
       </c>
       <c r="T43" t="n">
-        <v>960.5729724486215</v>
+        <v>1004.970354342314</v>
       </c>
       <c r="U43" t="n">
-        <v>707.0891612948893</v>
+        <v>751.4865431885815</v>
       </c>
       <c r="V43" t="n">
-        <v>473.062833451059</v>
+        <v>517.4602153447512</v>
       </c>
       <c r="W43" t="n">
-        <v>221.685448717582</v>
+        <v>266.0828306112742</v>
       </c>
       <c r="X43" t="n">
         <v>63.9555257296027</v>
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1999.88055813563</v>
+        <v>1665.170051648761</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.743945828281</v>
+        <v>1303.947567487037</v>
       </c>
       <c r="D44" t="n">
-        <v>1595.255834380294</v>
+        <v>1303.947567487037</v>
       </c>
       <c r="E44" t="n">
-        <v>1224.625326832184</v>
+        <v>933.3170599389271</v>
       </c>
       <c r="F44" t="n">
-        <v>839.683905697507</v>
+        <v>548.3756388042502</v>
       </c>
       <c r="G44" t="n">
-        <v>458.5544083317827</v>
+        <v>167.2461414385259</v>
       </c>
       <c r="H44" t="n">
-        <v>167.2461414385258</v>
+        <v>167.2461414385259</v>
       </c>
       <c r="I44" t="n">
         <v>63.95552572960271</v>
@@ -7678,22 +7678,22 @@
         <v>3197.776286480135</v>
       </c>
       <c r="T44" t="n">
-        <v>3006.579955524731</v>
+        <v>3197.776286480135</v>
       </c>
       <c r="U44" t="n">
-        <v>3006.579955524731</v>
+        <v>3197.776286480135</v>
       </c>
       <c r="V44" t="n">
-        <v>2696.426163563595</v>
+        <v>3094.795077196831</v>
       </c>
       <c r="W44" t="n">
-        <v>2357.380145867228</v>
+        <v>2755.749059500464</v>
       </c>
       <c r="X44" t="n">
-        <v>1999.88055813563</v>
+        <v>2398.249471768866</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.88055813563</v>
+        <v>2033.711780024812</v>
       </c>
     </row>
     <row r="45">
@@ -7736,16 +7736,16 @@
         <v>673.748401027205</v>
       </c>
       <c r="M45" t="n">
-        <v>1312.181721976174</v>
+        <v>1196.791824547789</v>
       </c>
       <c r="N45" t="n">
-        <v>1436.528169039565</v>
+        <v>1196.791824547789</v>
       </c>
       <c r="O45" t="n">
-        <v>1963.059940019331</v>
+        <v>1723.323595527555</v>
       </c>
       <c r="P45" t="n">
-        <v>2376.716410796137</v>
+        <v>2136.980066304361</v>
       </c>
       <c r="Q45" t="n">
         <v>2376.716410796137</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2400.597585231677</v>
+        <v>672.4637945129645</v>
       </c>
       <c r="C46" t="n">
-        <v>2400.597585231677</v>
+        <v>672.4637945129645</v>
       </c>
       <c r="D46" t="n">
-        <v>2276.917489469537</v>
+        <v>672.4637945129645</v>
       </c>
       <c r="E46" t="n">
-        <v>2276.917489469537</v>
+        <v>548.8579997075124</v>
       </c>
       <c r="F46" t="n">
-        <v>2276.917489469537</v>
+        <v>423.4850822558307</v>
       </c>
       <c r="G46" t="n">
-        <v>2140.652446169722</v>
+        <v>287.2200389560149</v>
       </c>
       <c r="H46" t="n">
-        <v>2140.652446169722</v>
+        <v>164.0145181033512</v>
       </c>
       <c r="I46" t="n">
-        <v>2040.593453795973</v>
+        <v>63.95552572960271</v>
       </c>
       <c r="J46" t="n">
-        <v>2044.630947347335</v>
+        <v>67.9930192809651</v>
       </c>
       <c r="K46" t="n">
-        <v>2161.881686679334</v>
+        <v>185.2437586129632</v>
       </c>
       <c r="L46" t="n">
-        <v>2362.571206556085</v>
+        <v>385.9332784897143</v>
       </c>
       <c r="M46" t="n">
-        <v>2585.709767192548</v>
+        <v>609.0718391261775</v>
       </c>
       <c r="N46" t="n">
-        <v>2805.614896524148</v>
+        <v>828.9769684577775</v>
       </c>
       <c r="O46" t="n">
-        <v>3004.623059373116</v>
+        <v>1027.985131306745</v>
       </c>
       <c r="P46" t="n">
-        <v>3160.08297016895</v>
+        <v>1183.445042102579</v>
       </c>
       <c r="Q46" t="n">
-        <v>3197.776286480135</v>
+        <v>1221.138358413765</v>
       </c>
       <c r="R46" t="n">
-        <v>3107.446702544742</v>
+        <v>1130.808774478372</v>
       </c>
       <c r="S46" t="n">
-        <v>3089.613542898725</v>
+        <v>1130.808774478372</v>
       </c>
       <c r="T46" t="n">
-        <v>2886.001297808984</v>
+        <v>1130.808774478372</v>
       </c>
       <c r="U46" t="n">
-        <v>2886.001297808984</v>
+        <v>1130.808774478372</v>
       </c>
       <c r="V46" t="n">
-        <v>2651.974969965154</v>
+        <v>1130.808774478372</v>
       </c>
       <c r="W46" t="n">
-        <v>2400.597585231677</v>
+        <v>879.431389744895</v>
       </c>
       <c r="X46" t="n">
-        <v>2400.597585231677</v>
+        <v>879.431389744895</v>
       </c>
       <c r="Y46" t="n">
-        <v>2400.597585231677</v>
+        <v>825.7187958689203</v>
       </c>
     </row>
   </sheetData>
@@ -7978,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>647.0581217063165</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>267.4792869621647</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
         <v>331.2113854294513</v>
@@ -8057,25 +8057,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>674.5394322581658</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N3" t="n">
-        <v>676.7842391234617</v>
+        <v>474.5348277078255</v>
       </c>
       <c r="O3" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8215,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>457.3649271011935</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M5" t="n">
         <v>701.2411122488187</v>
@@ -8233,10 +8233,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>267.4792869621647</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8303,10 +8303,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>577.0069902189997</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>85.37211285416666</v>
+        <v>569.9919810238545</v>
       </c>
       <c r="O6" t="n">
         <v>614.4252180716981</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
         <v>505.666843611017</v>
@@ -8467,7 +8467,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>545.7463662600596</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P8" t="n">
         <v>150.3014472409252</v>
@@ -8534,13 +8534,13 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M9" t="n">
-        <v>509.5709760063957</v>
+        <v>674.5394322581649</v>
       </c>
       <c r="N9" t="n">
         <v>676.7842391234617</v>
@@ -8549,10 +8549,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8771,16 +8771,16 @@
         <v>78.42882827219387</v>
       </c>
       <c r="K12" t="n">
-        <v>82.7335856678595</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>148.9302081740939</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>726.4998994499999</v>
+        <v>81.61775707730376</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>391.0854080485077</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -8789,7 +8789,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>85.56264513885799</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9005,28 +9005,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>78.42882827219388</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>82.73358566785953</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>522.2701871594392</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>74.31771483659506</v>
       </c>
       <c r="O15" t="n">
-        <v>602.6793065388662</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>78.96710011183173</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>85.56264513885802</v>
+        <v>85.56264513885799</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9245,16 +9245,16 @@
         <v>78.42882827219387</v>
       </c>
       <c r="K18" t="n">
-        <v>82.7335856678595</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>80.83172624173277</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>640.5433740182831</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>74.31771483659506</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9263,7 +9263,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>153.661127071219</v>
+        <v>85.56264513885799</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9482,16 +9482,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>82.7335856678595</v>
+        <v>82.73358566785953</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>609.9444475021356</v>
+        <v>81.61775707730381</v>
       </c>
       <c r="N21" t="n">
-        <v>74.31771483659506</v>
+        <v>602.6444052614272</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9716,28 +9716,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>78.42882827219387</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>82.73358566785951</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>81.61775707730376</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>272.8122211896638</v>
       </c>
       <c r="O24" t="n">
-        <v>602.6793065388662</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>78.9671001118317</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>85.562645138858</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9953,7 +9953,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>78.42882827219387</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
@@ -9962,10 +9962,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>81.61775707730378</v>
+        <v>280.1122634303725</v>
       </c>
       <c r="N27" t="n">
-        <v>391.0854080485078</v>
+        <v>74.31771483659506</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -10190,28 +10190,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>78.42882827219387</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>82.73358566785951</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>566.7650271405645</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>81.61775707730376</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>272.8122211896638</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>78.9671001118317</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>85.562645138858</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10436,10 +10436,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>81.61775707730376</v>
+        <v>280.1122634303725</v>
       </c>
       <c r="N33" t="n">
-        <v>272.8122211896638</v>
+        <v>74.31771483659506</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10673,10 +10673,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>81.61775707730376</v>
+        <v>398.3854502892165</v>
       </c>
       <c r="N36" t="n">
-        <v>633.2433317775744</v>
+        <v>74.31771483659506</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10685,7 +10685,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>85.56264513885799</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10907,10 +10907,10 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>80.83172624173278</v>
+        <v>221.8222427459605</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>81.61775707730376</v>
       </c>
       <c r="N39" t="n">
         <v>747.7741039759435</v>
@@ -10919,10 +10919,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>235.0682169388999</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>85.56264513885799</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11138,13 +11138,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>78.42882827219387</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
         <v>82.7335856678595</v>
       </c>
       <c r="L42" t="n">
-        <v>148.9302081740939</v>
+        <v>80.83172624173278</v>
       </c>
       <c r="M42" t="n">
         <v>726.4998994499999</v>
@@ -11156,10 +11156,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>204.4692904227527</v>
       </c>
       <c r="Q42" t="n">
-        <v>85.56264513885799</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11384,10 +11384,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>726.4998994499999</v>
+        <v>609.9444475021356</v>
       </c>
       <c r="N45" t="n">
-        <v>199.9201866177974</v>
+        <v>74.31771483659506</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -11396,7 +11396,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>85.56264513885799</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23269,16 +23269,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>320.3459121631605</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>112.6447804750543</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.51161479166434</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,13 +23311,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>67.38688287316378</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>160.8092652753604</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>246.3061592813552</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>304.1102163321214</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>72.98451949518633</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.51161479166434</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>70.65863498198738</v>
       </c>
       <c r="T14" t="n">
         <v>128.538272885681</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>160.8092652753604</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>41.85381821207687</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>227.6490894641548</v>
       </c>
       <c r="I17" t="n">
-        <v>41.51161479166437</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,13 +23785,13 @@
         <v>70.6586349819874</v>
       </c>
       <c r="T17" t="n">
-        <v>128.538272885681</v>
+        <v>15.38531770837714</v>
       </c>
       <c r="U17" t="n">
         <v>160.8092652753604</v>
       </c>
       <c r="V17" t="n">
-        <v>72.9845194951867</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23971,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>205.3416031740602</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23980,16 +23980,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>320.3459121631605</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>154.156395266719</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>227.6490894641548</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.51161479166439</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24460,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>132.8444725717712</v>
+        <v>227.6490894641548</v>
       </c>
       <c r="I26" t="n">
-        <v>41.51161479166434</v>
+        <v>41.51161479166436</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>44.53233789869986</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>160.8092652753604</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>300.1462200664433</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24691,16 +24691,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>320.3459121631605</v>
       </c>
       <c r="G29" t="n">
-        <v>205.34160317406</v>
+        <v>154.1563952667186</v>
       </c>
       <c r="H29" t="n">
-        <v>227.6490894641547</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.51161479166434</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>364.8563110922909</v>
+        <v>208.9483271543467</v>
       </c>
       <c r="C41" t="n">
         <v>357.6102593201067</v>
@@ -25636,7 +25636,7 @@
         <v>349.953230333507</v>
       </c>
       <c r="E41" t="n">
-        <v>313.2739280865175</v>
+        <v>366.924202472629</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>102.2577095518339</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0.989474844336498</v>
+        <v>0.9894748443365282</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>122.4432948045184</v>
       </c>
       <c r="E43" t="n">
-        <v>122.3697368573975</v>
+        <v>122.3697368573976</v>
       </c>
       <c r="F43" t="n">
         <v>124.1191882771648</v>
       </c>
       <c r="G43" t="n">
-        <v>134.9023928668175</v>
+        <v>134.9023928668176</v>
       </c>
       <c r="H43" t="n">
         <v>121.973465644137</v>
       </c>
       <c r="I43" t="n">
-        <v>99.058402450011</v>
+        <v>99.05840245001103</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>89.42628809603863</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>156.1032426175593</v>
       </c>
       <c r="T43" t="n">
-        <v>201.5761226388425</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>43.95340807475523</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>189.2474534095311</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>364.8563110922909</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>306.9850131358308</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>349.953230333507</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>288.3951842243243</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25912,19 +25912,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0.9894748443364971</v>
+        <v>0.9894748443365398</v>
       </c>
       <c r="S44" t="n">
-        <v>131.4047297421569</v>
+        <v>131.404729742157</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>189.2843676458505</v>
       </c>
       <c r="U44" t="n">
         <v>221.55536003553</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>205.1008568510535</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>360.8923148266129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>151.7224513423963</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>136.8695795926787</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>122.4432948045185</v>
       </c>
       <c r="E46" t="n">
-        <v>122.3697368573975</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>124.1191882771648</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>121.973465644137</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26073,25 +26073,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>150.8786159598954</v>
+        <v>168.5334440094533</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>201.5761226388425</v>
       </c>
       <c r="U46" t="n">
-        <v>250.9489730421948</v>
+        <v>250.9489730421949</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>231.6860645653921</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>200.1060318328547</v>
+        <v>200.1060318328548</v>
       </c>
       <c r="Y46" t="n">
-        <v>189.2474534095311</v>
+        <v>136.0719854723162</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>657997.3990798088</v>
+        <v>657997.3990798087</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>657997.3990798088</v>
+        <v>657997.3990798087</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>566735.2355221967</v>
+        <v>566735.2355221965</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>566735.2355221967</v>
+        <v>566735.2355221966</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>649195.8411360841</v>
+        <v>649195.8411360844</v>
       </c>
       <c r="C2" t="n">
+        <v>649195.8411360842</v>
+      </c>
+      <c r="D2" t="n">
         <v>649195.8411360843</v>
       </c>
-      <c r="D2" t="n">
-        <v>649195.8411360844</v>
-      </c>
       <c r="E2" t="n">
-        <v>615202.4958318089</v>
+        <v>615202.4958318091</v>
       </c>
       <c r="F2" t="n">
         <v>615202.4958318074</v>
       </c>
       <c r="G2" t="n">
+        <v>615202.4958318073</v>
+      </c>
+      <c r="H2" t="n">
         <v>615202.4958318075</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>615202.4958318075</v>
+      </c>
+      <c r="J2" t="n">
+        <v>615202.4958318076</v>
+      </c>
+      <c r="K2" t="n">
         <v>615202.4958318071</v>
       </c>
-      <c r="I2" t="n">
-        <v>615202.4958318074</v>
-      </c>
-      <c r="J2" t="n">
-        <v>615202.4958318075</v>
-      </c>
-      <c r="K2" t="n">
-        <v>615202.4958318074</v>
-      </c>
       <c r="L2" t="n">
-        <v>649195.8411360848</v>
+        <v>649195.8411360849</v>
       </c>
       <c r="M2" t="n">
+        <v>649195.8411360849</v>
+      </c>
+      <c r="N2" t="n">
         <v>649195.8411360855</v>
       </c>
-      <c r="N2" t="n">
-        <v>649195.8411360848</v>
-      </c>
       <c r="O2" t="n">
+        <v>518571.9697119826</v>
+      </c>
+      <c r="P2" t="n">
         <v>518571.9697119829</v>
-      </c>
-      <c r="P2" t="n">
-        <v>518571.9697119827</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>151892.9141874993</v>
+        <v>151892.9141874992</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,10 +26392,10 @@
         <v>228643.0999033327</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>25306.78972959358</v>
+        <v>25306.78972959355</v>
       </c>
       <c r="M3" t="n">
         <v>51842.39290918547</v>
@@ -26426,7 +26426,7 @@
         <v>223021.8565516675</v>
       </c>
       <c r="E4" t="n">
-        <v>172368.2761954699</v>
+        <v>172368.27619547</v>
       </c>
       <c r="F4" t="n">
         <v>172368.2761954699</v>
@@ -26441,7 +26441,7 @@
         <v>172368.2761954699</v>
       </c>
       <c r="J4" t="n">
-        <v>172368.27619547</v>
+        <v>172368.2761954699</v>
       </c>
       <c r="K4" t="n">
         <v>172368.2761954699</v>
@@ -26453,7 +26453,7 @@
         <v>193767.9334953318</v>
       </c>
       <c r="N4" t="n">
-        <v>193767.9334953319</v>
+        <v>193767.9334953318</v>
       </c>
       <c r="O4" t="n">
         <v>110936.6150315284</v>
@@ -26478,7 +26478,7 @@
         <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>56803.23322599258</v>
+        <v>56803.23322599257</v>
       </c>
       <c r="F5" t="n">
         <v>56803.23322599257</v>
@@ -26487,25 +26487,25 @@
         <v>56803.23322599257</v>
       </c>
       <c r="H5" t="n">
-        <v>56803.23322599257</v>
+        <v>56803.23322599256</v>
       </c>
       <c r="I5" t="n">
         <v>56803.23322599257</v>
       </c>
       <c r="J5" t="n">
-        <v>56803.23322599258</v>
+        <v>56803.23322599257</v>
       </c>
       <c r="K5" t="n">
-        <v>56803.23322599258</v>
+        <v>56803.23322599257</v>
       </c>
       <c r="L5" t="n">
-        <v>59462.62885821408</v>
+        <v>59462.62885821407</v>
       </c>
       <c r="M5" t="n">
-        <v>59462.62885821408</v>
+        <v>59462.62885821407</v>
       </c>
       <c r="N5" t="n">
-        <v>59462.62885821408</v>
+        <v>59462.62885821407</v>
       </c>
       <c r="O5" t="n">
         <v>51696.36978559988</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>158392.7213154985</v>
+        <v>158392.7213154988</v>
       </c>
       <c r="C6" t="n">
+        <v>356588.5273072436</v>
+      </c>
+      <c r="D6" t="n">
         <v>356588.5273072437</v>
       </c>
-      <c r="D6" t="n">
-        <v>356588.5273072438</v>
-      </c>
       <c r="E6" t="n">
-        <v>234138.0722228471</v>
+        <v>234043.6462636689</v>
       </c>
       <c r="F6" t="n">
-        <v>386030.9864103449</v>
+        <v>385936.5604511664</v>
       </c>
       <c r="G6" t="n">
-        <v>386030.9864103451</v>
+        <v>385936.5604511662</v>
       </c>
       <c r="H6" t="n">
-        <v>386030.9864103447</v>
+        <v>385936.5604511665</v>
       </c>
       <c r="I6" t="n">
-        <v>386030.9864103449</v>
+        <v>385936.5604511665</v>
       </c>
       <c r="J6" t="n">
-        <v>157387.8865070123</v>
+        <v>157293.4605478339</v>
       </c>
       <c r="K6" t="n">
-        <v>386030.9864103449</v>
+        <v>385936.5604511661</v>
       </c>
       <c r="L6" t="n">
-        <v>370658.4890529453</v>
+        <v>370658.4890529455</v>
       </c>
       <c r="M6" t="n">
-        <v>344122.885873354</v>
+        <v>344122.8858733535</v>
       </c>
       <c r="N6" t="n">
-        <v>395965.2787825388</v>
+        <v>395965.2787825396</v>
       </c>
       <c r="O6" t="n">
-        <v>355938.9848948545</v>
+        <v>355576.1408075651</v>
       </c>
       <c r="P6" t="n">
-        <v>355938.9848948544</v>
+        <v>355576.1408075655</v>
       </c>
     </row>
   </sheetData>
@@ -26694,10 +26694,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
       <c r="F2" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
       <c r="G2" t="n">
         <v>92.37958192216149</v>
@@ -26709,7 +26709,7 @@
         <v>92.37958192216149</v>
       </c>
       <c r="J2" t="n">
-        <v>92.37958192216152</v>
+        <v>92.37958192216151</v>
       </c>
       <c r="K2" t="n">
         <v>92.37958192216152</v>
@@ -26724,10 +26724,10 @@
         <v>124.0130690841535</v>
       </c>
       <c r="O2" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199195</v>
       </c>
       <c r="P2" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199194</v>
       </c>
     </row>
     <row r="3">
@@ -26746,37 +26746,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>19.7603027009324</v>
+        <v>19.76030270093237</v>
       </c>
       <c r="F3" t="n">
-        <v>19.76030270093229</v>
+        <v>19.76030270093237</v>
       </c>
       <c r="G3" t="n">
         <v>19.7603027009324</v>
       </c>
       <c r="H3" t="n">
-        <v>19.76030270093239</v>
+        <v>19.7603027009323</v>
       </c>
       <c r="I3" t="n">
-        <v>19.76030270093236</v>
+        <v>19.76030270093238</v>
       </c>
       <c r="J3" t="n">
-        <v>19.76030270093236</v>
+        <v>19.76030270093238</v>
       </c>
       <c r="K3" t="n">
-        <v>19.76030270093236</v>
+        <v>19.76030270093238</v>
       </c>
       <c r="L3" t="n">
-        <v>19.76030270093239</v>
+        <v>19.76030270093238</v>
       </c>
       <c r="M3" t="n">
-        <v>19.76030270093239</v>
+        <v>19.76030270093238</v>
       </c>
       <c r="N3" t="n">
-        <v>19.76030270093239</v>
+        <v>19.76030270093238</v>
       </c>
       <c r="O3" t="n">
-        <v>19.76030270093239</v>
+        <v>19.76030270093238</v>
       </c>
       <c r="P3" t="n">
         <v>19.76030270093239</v>
@@ -26916,28 +26916,28 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>92.37958192216152</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
         <v>92.37958192216153</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>92.37958192216156</v>
-      </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199194</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>19.7603027009324</v>
+        <v>19.76030270093237</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27153,25 +27153,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>92.37958192216152</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>92.37958192216153</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>92.37958192216156</v>
-      </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>356.2499657818646</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>86.25419488954981</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
@@ -27444,10 +27444,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27542,19 +27542,19 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
@@ -27584,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>253.8384491331664</v>
       </c>
       <c r="V4" t="n">
-        <v>56.63048077364775</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
@@ -27618,22 +27618,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>153.7885616961715</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>210.7476594114048</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,25 +27663,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -27791,13 +27791,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>40.83490459054867</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27824,25 +27824,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>55.62097653529247</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>191.4015462735047</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
@@ -27918,10 +27918,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>227.3756138960387</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,16 +28025,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>89.8306477295276</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>91.34301595726318</v>
       </c>
       <c r="T10" t="n">
         <v>233.3618613134482</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
       <c r="C11" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
       <c r="D11" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
       <c r="E11" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
       <c r="F11" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
       <c r="G11" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
       <c r="H11" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
       <c r="I11" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>32.62296200632848</v>
       </c>
       <c r="S11" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
       <c r="T11" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
       <c r="U11" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
       <c r="V11" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
       <c r="W11" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
       <c r="X11" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
       <c r="Y11" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
       <c r="C13" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
       <c r="D13" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
       <c r="E13" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
       <c r="F13" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
       <c r="G13" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
       <c r="H13" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
       <c r="I13" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
       <c r="J13" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
       <c r="K13" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
       <c r="L13" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
       <c r="M13" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
       <c r="N13" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
       <c r="O13" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
       <c r="P13" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
       <c r="Q13" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
       <c r="R13" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
       <c r="S13" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
       <c r="T13" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
       <c r="U13" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
       <c r="V13" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
       <c r="W13" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
       <c r="X13" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
       <c r="Y13" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
       <c r="C14" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
       <c r="D14" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
       <c r="E14" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
       <c r="F14" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
       <c r="G14" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
       <c r="H14" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
       <c r="I14" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28374,28 +28374,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>32.6229620063285</v>
+        <v>32.62296200632848</v>
       </c>
       <c r="S14" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
       <c r="T14" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
       <c r="U14" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
       <c r="V14" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
       <c r="W14" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
       <c r="X14" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
       <c r="Y14" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
       <c r="C16" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
       <c r="D16" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
       <c r="E16" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
       <c r="F16" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
       <c r="G16" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
       <c r="H16" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
       <c r="I16" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
       <c r="J16" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
       <c r="K16" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
       <c r="L16" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
       <c r="M16" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
       <c r="N16" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
       <c r="O16" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
       <c r="P16" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
       <c r="Q16" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
       <c r="R16" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
       <c r="S16" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
       <c r="T16" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
       <c r="U16" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
       <c r="V16" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
       <c r="W16" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
       <c r="X16" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
       <c r="Y16" t="n">
-        <v>92.37958192216153</v>
+        <v>92.37958192216152</v>
       </c>
     </row>
     <row r="17">
@@ -28848,7 +28848,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>32.62296200632848</v>
+        <v>32.6229620063285</v>
       </c>
       <c r="S20" t="n">
         <v>92.37958192216149</v>
@@ -28997,13 +28997,13 @@
         <v>92.37958192216149</v>
       </c>
       <c r="O22" t="n">
-        <v>92.37958192216243</v>
+        <v>92.37958192216149</v>
       </c>
       <c r="P22" t="n">
         <v>92.37958192216149</v>
       </c>
       <c r="Q22" t="n">
-        <v>92.37958192216149</v>
+        <v>92.37958192216234</v>
       </c>
       <c r="R22" t="n">
         <v>92.37958192216149</v>
@@ -29085,7 +29085,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>32.62296200632849</v>
+        <v>32.62296200632848</v>
       </c>
       <c r="S23" t="n">
         <v>92.37958192216149</v>
@@ -29219,13 +29219,13 @@
         <v>92.37958192216149</v>
       </c>
       <c r="J25" t="n">
-        <v>92.37958192216229</v>
+        <v>92.37958192216149</v>
       </c>
       <c r="K25" t="n">
         <v>92.37958192216149</v>
       </c>
       <c r="L25" t="n">
-        <v>92.37958192216149</v>
+        <v>92.37958192216226</v>
       </c>
       <c r="M25" t="n">
         <v>92.37958192216149</v>
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>92.37958192216152</v>
+        <v>92.37958192216151</v>
       </c>
       <c r="C26" t="n">
-        <v>92.37958192216152</v>
+        <v>92.37958192216151</v>
       </c>
       <c r="D26" t="n">
-        <v>92.37958192216152</v>
+        <v>92.37958192216151</v>
       </c>
       <c r="E26" t="n">
-        <v>92.37958192216152</v>
+        <v>92.37958192216151</v>
       </c>
       <c r="F26" t="n">
-        <v>92.37958192216152</v>
+        <v>92.37958192216151</v>
       </c>
       <c r="G26" t="n">
-        <v>92.37958192216152</v>
+        <v>92.37958192216151</v>
       </c>
       <c r="H26" t="n">
-        <v>92.37958192216152</v>
+        <v>92.37958192216151</v>
       </c>
       <c r="I26" t="n">
-        <v>92.37958192216152</v>
+        <v>92.37958192216151</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29322,28 +29322,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>32.62296200632849</v>
+        <v>32.62296200632848</v>
       </c>
       <c r="S26" t="n">
-        <v>92.37958192216152</v>
+        <v>92.37958192216151</v>
       </c>
       <c r="T26" t="n">
-        <v>92.37958192216152</v>
+        <v>92.37958192216151</v>
       </c>
       <c r="U26" t="n">
-        <v>92.37958192216152</v>
+        <v>92.37958192216151</v>
       </c>
       <c r="V26" t="n">
-        <v>92.37958192216152</v>
+        <v>92.37958192216151</v>
       </c>
       <c r="W26" t="n">
-        <v>92.37958192216152</v>
+        <v>92.37958192216151</v>
       </c>
       <c r="X26" t="n">
-        <v>92.37958192216152</v>
+        <v>92.37958192216151</v>
       </c>
       <c r="Y26" t="n">
-        <v>92.37958192216152</v>
+        <v>92.37958192216151</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>92.37958192216152</v>
+        <v>92.37958192216151</v>
       </c>
       <c r="C28" t="n">
-        <v>92.37958192216152</v>
+        <v>92.37958192216151</v>
       </c>
       <c r="D28" t="n">
-        <v>92.37958192216152</v>
+        <v>92.37958192216151</v>
       </c>
       <c r="E28" t="n">
-        <v>92.37958192216152</v>
+        <v>92.37958192216151</v>
       </c>
       <c r="F28" t="n">
-        <v>92.37958192216152</v>
+        <v>92.37958192216151</v>
       </c>
       <c r="G28" t="n">
-        <v>92.37958192216152</v>
+        <v>92.37958192216151</v>
       </c>
       <c r="H28" t="n">
-        <v>92.37958192216152</v>
+        <v>92.37958192216151</v>
       </c>
       <c r="I28" t="n">
-        <v>92.37958192216152</v>
+        <v>92.37958192216151</v>
       </c>
       <c r="J28" t="n">
-        <v>92.37958192216152</v>
+        <v>92.37958192216151</v>
       </c>
       <c r="K28" t="n">
-        <v>92.37958192216152</v>
+        <v>92.37958192216151</v>
       </c>
       <c r="L28" t="n">
-        <v>92.37958192216152</v>
+        <v>92.37958192216151</v>
       </c>
       <c r="M28" t="n">
-        <v>92.37958192216152</v>
+        <v>92.37958192216151</v>
       </c>
       <c r="N28" t="n">
-        <v>92.37958192216152</v>
+        <v>92.37958192216151</v>
       </c>
       <c r="O28" t="n">
-        <v>92.37958192216152</v>
+        <v>92.37958192216151</v>
       </c>
       <c r="P28" t="n">
-        <v>92.37958192216152</v>
+        <v>92.37958192216151</v>
       </c>
       <c r="Q28" t="n">
-        <v>92.37958192216152</v>
+        <v>92.37958192216151</v>
       </c>
       <c r="R28" t="n">
-        <v>92.37958192216152</v>
+        <v>92.37958192216151</v>
       </c>
       <c r="S28" t="n">
-        <v>92.37958192216152</v>
+        <v>92.37958192216151</v>
       </c>
       <c r="T28" t="n">
-        <v>92.37958192216152</v>
+        <v>92.37958192216151</v>
       </c>
       <c r="U28" t="n">
-        <v>92.37958192216152</v>
+        <v>92.37958192216151</v>
       </c>
       <c r="V28" t="n">
-        <v>92.37958192216152</v>
+        <v>92.37958192216151</v>
       </c>
       <c r="W28" t="n">
-        <v>92.37958192216152</v>
+        <v>92.37958192216151</v>
       </c>
       <c r="X28" t="n">
-        <v>92.37958192216152</v>
+        <v>92.37958192216151</v>
       </c>
       <c r="Y28" t="n">
-        <v>92.37958192216152</v>
+        <v>92.37958192216151</v>
       </c>
     </row>
     <row r="29">
@@ -29559,7 +29559,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>32.62296200632849</v>
+        <v>32.62296200632848</v>
       </c>
       <c r="S29" t="n">
         <v>92.37958192216152</v>
@@ -29930,7 +29930,7 @@
         <v>124.0130690841535</v>
       </c>
       <c r="J34" t="n">
-        <v>101.6244425672439</v>
+        <v>27.55521084748446</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -29948,10 +29948,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>124.0130690841535</v>
       </c>
       <c r="Q34" t="n">
-        <v>124.0130690841535</v>
+        <v>74.0692317197603</v>
       </c>
       <c r="R34" t="n">
         <v>121.0597752580306</v>
@@ -30167,13 +30167,13 @@
         <v>124.0130690841535</v>
       </c>
       <c r="J37" t="n">
-        <v>101.6244425672439</v>
+        <v>101.6244425672448</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>124.0130690841535</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -30188,7 +30188,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>124.0130690841535</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>121.0597752580306</v>
@@ -30404,10 +30404,10 @@
         <v>124.0130690841535</v>
       </c>
       <c r="J40" t="n">
-        <v>101.6244425672441</v>
+        <v>124.0130690841535</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>101.6244425672447</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30425,7 +30425,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>124.0130690841535</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>121.0597752580306</v>
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199195</v>
       </c>
       <c r="C41" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199195</v>
       </c>
       <c r="D41" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199195</v>
       </c>
       <c r="E41" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199195</v>
       </c>
       <c r="F41" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199195</v>
       </c>
       <c r="G41" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199195</v>
       </c>
       <c r="H41" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199195</v>
       </c>
       <c r="I41" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199195</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30507,28 +30507,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199195</v>
       </c>
       <c r="S41" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199195</v>
       </c>
       <c r="T41" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199195</v>
       </c>
       <c r="U41" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199195</v>
       </c>
       <c r="V41" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199195</v>
       </c>
       <c r="W41" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199195</v>
       </c>
       <c r="X41" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199195</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199195</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199195</v>
       </c>
       <c r="C43" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199195</v>
       </c>
       <c r="D43" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199195</v>
       </c>
       <c r="E43" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199195</v>
       </c>
       <c r="F43" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199195</v>
       </c>
       <c r="G43" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199195</v>
       </c>
       <c r="H43" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199195</v>
       </c>
       <c r="I43" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199195</v>
       </c>
       <c r="J43" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199195</v>
       </c>
       <c r="K43" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199195</v>
       </c>
       <c r="L43" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199195</v>
       </c>
       <c r="M43" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199195</v>
       </c>
       <c r="N43" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199195</v>
       </c>
       <c r="O43" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199195</v>
       </c>
       <c r="P43" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199195</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199195</v>
       </c>
       <c r="R43" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199195</v>
       </c>
       <c r="S43" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199195</v>
       </c>
       <c r="T43" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199195</v>
       </c>
       <c r="U43" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199195</v>
       </c>
       <c r="V43" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199195</v>
       </c>
       <c r="W43" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199195</v>
       </c>
       <c r="X43" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199195</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199195</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199194</v>
       </c>
       <c r="C44" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199194</v>
       </c>
       <c r="D44" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199194</v>
       </c>
       <c r="E44" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199194</v>
       </c>
       <c r="F44" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199194</v>
       </c>
       <c r="G44" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199194</v>
       </c>
       <c r="H44" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199194</v>
       </c>
       <c r="I44" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199194</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30744,28 +30744,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199194</v>
       </c>
       <c r="S44" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199194</v>
       </c>
       <c r="T44" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199194</v>
       </c>
       <c r="U44" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199194</v>
       </c>
       <c r="V44" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199194</v>
       </c>
       <c r="W44" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199194</v>
       </c>
       <c r="X44" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199194</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199194</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199194</v>
       </c>
       <c r="C46" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199194</v>
       </c>
       <c r="D46" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199194</v>
       </c>
       <c r="E46" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199194</v>
       </c>
       <c r="F46" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199194</v>
       </c>
       <c r="G46" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199194</v>
       </c>
       <c r="H46" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199194</v>
       </c>
       <c r="I46" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199194</v>
       </c>
       <c r="J46" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199194</v>
       </c>
       <c r="K46" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199194</v>
       </c>
       <c r="L46" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199194</v>
       </c>
       <c r="M46" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199194</v>
       </c>
       <c r="N46" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199194</v>
       </c>
       <c r="O46" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199194</v>
       </c>
       <c r="P46" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199194</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199194</v>
       </c>
       <c r="R46" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199194</v>
       </c>
       <c r="S46" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199194</v>
       </c>
       <c r="T46" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199194</v>
       </c>
       <c r="U46" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199194</v>
       </c>
       <c r="V46" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199194</v>
       </c>
       <c r="W46" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199194</v>
       </c>
       <c r="X46" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199194</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.63348716199198</v>
+        <v>31.63348716199194</v>
       </c>
     </row>
   </sheetData>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.07943840281781864</v>
+        <v>0.07943840281781853</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8135485428579853</v>
+        <v>0.8135485428579843</v>
       </c>
       <c r="I11" t="n">
-        <v>3.062549024633956</v>
+        <v>3.062549024633952</v>
       </c>
       <c r="J11" t="n">
-        <v>6.74223514115884</v>
+        <v>6.742235141158832</v>
       </c>
       <c r="K11" t="n">
-        <v>10.10486273243711</v>
+        <v>10.10486273243709</v>
       </c>
       <c r="L11" t="n">
-        <v>12.53597575267292</v>
+        <v>12.53597575267291</v>
       </c>
       <c r="M11" t="n">
-        <v>13.94868844878431</v>
+        <v>13.94868844878429</v>
       </c>
       <c r="N11" t="n">
-        <v>14.17439281079043</v>
+        <v>14.17439281079042</v>
       </c>
       <c r="O11" t="n">
-        <v>13.38447719277075</v>
+        <v>13.38447719277073</v>
       </c>
       <c r="P11" t="n">
-        <v>11.42334162320585</v>
+        <v>11.42334162320584</v>
       </c>
       <c r="Q11" t="n">
-        <v>8.578453822292717</v>
+        <v>8.578453822292706</v>
       </c>
       <c r="R11" t="n">
-        <v>4.990022571004804</v>
+        <v>4.990022571004798</v>
       </c>
       <c r="S11" t="n">
-        <v>1.810202604211044</v>
+        <v>1.810202604211042</v>
       </c>
       <c r="T11" t="n">
-        <v>0.3477416083350012</v>
+        <v>0.3477416083350008</v>
       </c>
       <c r="U11" t="n">
-        <v>0.006355072225425489</v>
+        <v>0.006355072225425481</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04250329260200554</v>
+        <v>0.04250329260200549</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4104923259193693</v>
+        <v>0.4104923259193689</v>
       </c>
       <c r="I12" t="n">
-        <v>1.46338090756905</v>
+        <v>1.463380907569049</v>
       </c>
       <c r="J12" t="n">
-        <v>4.01562906113948</v>
+        <v>4.015629061139475</v>
       </c>
       <c r="K12" t="n">
-        <v>6.863349665473851</v>
+        <v>6.863349665473843</v>
       </c>
       <c r="L12" t="n">
-        <v>9.228620615185458</v>
+        <v>9.228620615185447</v>
       </c>
       <c r="M12" t="n">
-        <v>10.76936497200816</v>
+        <v>10.76936497200814</v>
       </c>
       <c r="N12" t="n">
-        <v>11.05439801757161</v>
+        <v>11.05439801757159</v>
       </c>
       <c r="O12" t="n">
-        <v>10.11261453412717</v>
+        <v>10.11261453412716</v>
       </c>
       <c r="P12" t="n">
-        <v>8.116264707482971</v>
+        <v>8.11626470748296</v>
       </c>
       <c r="Q12" t="n">
-        <v>5.425508017056006</v>
+        <v>5.425508017055999</v>
       </c>
       <c r="R12" t="n">
-        <v>2.638932500324521</v>
+        <v>2.638932500324517</v>
       </c>
       <c r="S12" t="n">
-        <v>0.7894800182872515</v>
+        <v>0.7894800182872505</v>
       </c>
       <c r="T12" t="n">
-        <v>0.1713180960580837</v>
+        <v>0.1713180960580835</v>
       </c>
       <c r="U12" t="n">
-        <v>0.002796269250131944</v>
+        <v>0.002796269250131941</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03563333273938629</v>
+        <v>0.03563333273938624</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3168127219919983</v>
+        <v>0.3168127219919979</v>
       </c>
       <c r="I13" t="n">
-        <v>1.071591497289908</v>
+        <v>1.071591497289907</v>
       </c>
       <c r="J13" t="n">
-        <v>2.519276624674611</v>
+        <v>2.519276624674607</v>
       </c>
       <c r="K13" t="n">
-        <v>4.139945385539606</v>
+        <v>4.139945385539601</v>
       </c>
       <c r="L13" t="n">
-        <v>5.297704760181123</v>
+        <v>5.297704760181116</v>
       </c>
       <c r="M13" t="n">
-        <v>5.58568687659307</v>
+        <v>5.585686876593063</v>
       </c>
       <c r="N13" t="n">
-        <v>5.452871727291726</v>
+        <v>5.452871727291719</v>
       </c>
       <c r="O13" t="n">
-        <v>5.036609613017984</v>
+        <v>5.036609613017978</v>
       </c>
       <c r="P13" t="n">
-        <v>4.3096896251345</v>
+        <v>4.309689625134495</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.983805707840792</v>
+        <v>2.983805707840788</v>
       </c>
       <c r="R13" t="n">
-        <v>1.602204215718223</v>
+        <v>1.602204215718221</v>
       </c>
       <c r="S13" t="n">
-        <v>0.6209918078309409</v>
+        <v>0.6209918078309401</v>
       </c>
       <c r="T13" t="n">
-        <v>0.1522515126137414</v>
+        <v>0.1522515126137412</v>
       </c>
       <c r="U13" t="n">
-        <v>0.001943636331239254</v>
+        <v>0.001943636331239252</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.07943840281781821</v>
+        <v>0.07943840281781853</v>
       </c>
       <c r="H14" t="n">
-        <v>0.8135485428579808</v>
+        <v>0.8135485428579843</v>
       </c>
       <c r="I14" t="n">
-        <v>3.062549024633939</v>
+        <v>3.062549024633952</v>
       </c>
       <c r="J14" t="n">
-        <v>6.742235141158804</v>
+        <v>6.742235141158832</v>
       </c>
       <c r="K14" t="n">
-        <v>10.10486273243705</v>
+        <v>10.10486273243709</v>
       </c>
       <c r="L14" t="n">
-        <v>12.53597575267286</v>
+        <v>12.53597575267291</v>
       </c>
       <c r="M14" t="n">
-        <v>13.94868844878423</v>
+        <v>13.94868844878429</v>
       </c>
       <c r="N14" t="n">
-        <v>14.17439281079036</v>
+        <v>14.17439281079042</v>
       </c>
       <c r="O14" t="n">
-        <v>13.38447719277068</v>
+        <v>13.38447719277073</v>
       </c>
       <c r="P14" t="n">
-        <v>11.42334162320579</v>
+        <v>11.42334162320584</v>
       </c>
       <c r="Q14" t="n">
-        <v>8.578453822292671</v>
+        <v>8.578453822292706</v>
       </c>
       <c r="R14" t="n">
-        <v>4.990022571004777</v>
+        <v>4.990022571004798</v>
       </c>
       <c r="S14" t="n">
-        <v>1.810202604211034</v>
+        <v>1.810202604211042</v>
       </c>
       <c r="T14" t="n">
-        <v>0.3477416083349993</v>
+        <v>0.3477416083350008</v>
       </c>
       <c r="U14" t="n">
-        <v>0.006355072225425455</v>
+        <v>0.006355072225425481</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04250329260200531</v>
+        <v>0.04250329260200549</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4104923259193671</v>
+        <v>0.4104923259193689</v>
       </c>
       <c r="I15" t="n">
-        <v>1.463380907569043</v>
+        <v>1.463380907569049</v>
       </c>
       <c r="J15" t="n">
-        <v>4.015629061139458</v>
+        <v>4.015629061139475</v>
       </c>
       <c r="K15" t="n">
-        <v>6.863349665473814</v>
+        <v>6.863349665473843</v>
       </c>
       <c r="L15" t="n">
-        <v>9.228620615185408</v>
+        <v>9.228620615185447</v>
       </c>
       <c r="M15" t="n">
-        <v>10.7693649720081</v>
+        <v>10.76936497200814</v>
       </c>
       <c r="N15" t="n">
-        <v>11.05439801757155</v>
+        <v>11.05439801757159</v>
       </c>
       <c r="O15" t="n">
-        <v>10.11261453412711</v>
+        <v>10.11261453412716</v>
       </c>
       <c r="P15" t="n">
-        <v>8.116264707482927</v>
+        <v>8.11626470748296</v>
       </c>
       <c r="Q15" t="n">
-        <v>5.425508017055977</v>
+        <v>5.425508017055999</v>
       </c>
       <c r="R15" t="n">
-        <v>2.638932500324506</v>
+        <v>2.638932500324517</v>
       </c>
       <c r="S15" t="n">
-        <v>0.7894800182872472</v>
+        <v>0.7894800182872505</v>
       </c>
       <c r="T15" t="n">
-        <v>0.1713180960580827</v>
+        <v>0.1713180960580835</v>
       </c>
       <c r="U15" t="n">
-        <v>0.00279626925013193</v>
+        <v>0.002796269250131941</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0356333327393861</v>
+        <v>0.03563333273938624</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3168127219919966</v>
+        <v>0.3168127219919979</v>
       </c>
       <c r="I16" t="n">
-        <v>1.071591497289902</v>
+        <v>1.071591497289907</v>
       </c>
       <c r="J16" t="n">
-        <v>2.519276624674597</v>
+        <v>2.519276624674607</v>
       </c>
       <c r="K16" t="n">
-        <v>4.139945385539584</v>
+        <v>4.139945385539601</v>
       </c>
       <c r="L16" t="n">
-        <v>5.297704760181094</v>
+        <v>5.297704760181116</v>
       </c>
       <c r="M16" t="n">
-        <v>5.58568687659304</v>
+        <v>5.585686876593063</v>
       </c>
       <c r="N16" t="n">
-        <v>5.452871727291696</v>
+        <v>5.452871727291719</v>
       </c>
       <c r="O16" t="n">
-        <v>5.036609613017957</v>
+        <v>5.036609613017978</v>
       </c>
       <c r="P16" t="n">
-        <v>4.309689625134477</v>
+        <v>4.309689625134495</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.983805707840776</v>
+        <v>2.983805707840788</v>
       </c>
       <c r="R16" t="n">
-        <v>1.602204215718215</v>
+        <v>1.602204215718221</v>
       </c>
       <c r="S16" t="n">
-        <v>0.6209918078309375</v>
+        <v>0.6209918078309401</v>
       </c>
       <c r="T16" t="n">
-        <v>0.1522515126137406</v>
+        <v>0.1522515126137412</v>
       </c>
       <c r="U16" t="n">
-        <v>0.001943636331239244</v>
+        <v>0.001943636331239252</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.07943840281781858</v>
+        <v>0.07943840281781822</v>
       </c>
       <c r="H20" t="n">
-        <v>0.8135485428579848</v>
+        <v>0.8135485428579811</v>
       </c>
       <c r="I20" t="n">
-        <v>3.062549024633954</v>
+        <v>3.06254902463394</v>
       </c>
       <c r="J20" t="n">
-        <v>6.742235141158837</v>
+        <v>6.742235141158805</v>
       </c>
       <c r="K20" t="n">
-        <v>10.1048627324371</v>
+        <v>10.10486273243705</v>
       </c>
       <c r="L20" t="n">
-        <v>12.53597575267292</v>
+        <v>12.53597575267286</v>
       </c>
       <c r="M20" t="n">
-        <v>13.9486884487843</v>
+        <v>13.94868844878423</v>
       </c>
       <c r="N20" t="n">
-        <v>14.17439281079043</v>
+        <v>14.17439281079036</v>
       </c>
       <c r="O20" t="n">
-        <v>13.38447719277074</v>
+        <v>13.38447719277068</v>
       </c>
       <c r="P20" t="n">
-        <v>11.42334162320584</v>
+        <v>11.42334162320579</v>
       </c>
       <c r="Q20" t="n">
-        <v>8.578453822292714</v>
+        <v>8.578453822292673</v>
       </c>
       <c r="R20" t="n">
-        <v>4.990022571004801</v>
+        <v>4.990022571004778</v>
       </c>
       <c r="S20" t="n">
-        <v>1.810202604211043</v>
+        <v>1.810202604211034</v>
       </c>
       <c r="T20" t="n">
-        <v>0.3477416083350011</v>
+        <v>0.3477416083349994</v>
       </c>
       <c r="U20" t="n">
-        <v>0.006355072225425485</v>
+        <v>0.006355072225425456</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04250329260200552</v>
+        <v>0.04250329260200532</v>
       </c>
       <c r="H21" t="n">
-        <v>0.4104923259193691</v>
+        <v>0.4104923259193672</v>
       </c>
       <c r="I21" t="n">
-        <v>1.46338090756905</v>
+        <v>1.463380907569043</v>
       </c>
       <c r="J21" t="n">
-        <v>4.015629061139478</v>
+        <v>4.015629061139459</v>
       </c>
       <c r="K21" t="n">
-        <v>6.863349665473847</v>
+        <v>6.863349665473815</v>
       </c>
       <c r="L21" t="n">
-        <v>9.228620615185452</v>
+        <v>9.22862061518541</v>
       </c>
       <c r="M21" t="n">
-        <v>10.76936497200815</v>
+        <v>10.7693649720081</v>
       </c>
       <c r="N21" t="n">
-        <v>11.0543980175716</v>
+        <v>11.05439801757155</v>
       </c>
       <c r="O21" t="n">
-        <v>10.11261453412716</v>
+        <v>10.11261453412712</v>
       </c>
       <c r="P21" t="n">
-        <v>8.116264707482966</v>
+        <v>8.116264707482928</v>
       </c>
       <c r="Q21" t="n">
-        <v>5.425508017056003</v>
+        <v>5.425508017055978</v>
       </c>
       <c r="R21" t="n">
-        <v>2.638932500324519</v>
+        <v>2.638932500324507</v>
       </c>
       <c r="S21" t="n">
-        <v>0.7894800182872511</v>
+        <v>0.7894800182872473</v>
       </c>
       <c r="T21" t="n">
-        <v>0.1713180960580836</v>
+        <v>0.1713180960580828</v>
       </c>
       <c r="U21" t="n">
-        <v>0.002796269250131943</v>
+        <v>0.00279626925013193</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03563333273938627</v>
+        <v>0.0356333327393861</v>
       </c>
       <c r="H22" t="n">
-        <v>0.3168127219919982</v>
+        <v>0.3168127219919967</v>
       </c>
       <c r="I22" t="n">
-        <v>1.071591497289907</v>
+        <v>1.071591497289903</v>
       </c>
       <c r="J22" t="n">
-        <v>2.519276624674609</v>
+        <v>2.519276624674597</v>
       </c>
       <c r="K22" t="n">
-        <v>4.139945385539604</v>
+        <v>4.139945385539585</v>
       </c>
       <c r="L22" t="n">
-        <v>5.297704760181119</v>
+        <v>5.297704760181095</v>
       </c>
       <c r="M22" t="n">
-        <v>5.585686876593067</v>
+        <v>5.585686876593041</v>
       </c>
       <c r="N22" t="n">
-        <v>5.452871727291723</v>
+        <v>5.452871727291697</v>
       </c>
       <c r="O22" t="n">
-        <v>5.036609613017982</v>
+        <v>5.036609613017958</v>
       </c>
       <c r="P22" t="n">
-        <v>4.309689625134498</v>
+        <v>4.309689625134478</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.983805707840791</v>
+        <v>2.983805707840776</v>
       </c>
       <c r="R22" t="n">
-        <v>1.602204215718222</v>
+        <v>1.602204215718215</v>
       </c>
       <c r="S22" t="n">
-        <v>0.6209918078309405</v>
+        <v>0.6209918078309377</v>
       </c>
       <c r="T22" t="n">
-        <v>0.1522515126137413</v>
+        <v>0.1522515126137406</v>
       </c>
       <c r="U22" t="n">
-        <v>0.001943636331239253</v>
+        <v>0.001943636331239244</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.07943840281781846</v>
+        <v>0.07943840281781855</v>
       </c>
       <c r="H23" t="n">
-        <v>0.8135485428579835</v>
+        <v>0.8135485428579845</v>
       </c>
       <c r="I23" t="n">
-        <v>3.062549024633949</v>
+        <v>3.062549024633953</v>
       </c>
       <c r="J23" t="n">
-        <v>6.742235141158826</v>
+        <v>6.742235141158834</v>
       </c>
       <c r="K23" t="n">
-        <v>10.10486273243708</v>
+        <v>10.1048627324371</v>
       </c>
       <c r="L23" t="n">
-        <v>12.5359757526729</v>
+        <v>12.53597575267291</v>
       </c>
       <c r="M23" t="n">
-        <v>13.94868844878428</v>
+        <v>13.94868844878429</v>
       </c>
       <c r="N23" t="n">
-        <v>14.1743928107904</v>
+        <v>14.17439281079042</v>
       </c>
       <c r="O23" t="n">
-        <v>13.38447719277072</v>
+        <v>13.38447719277074</v>
       </c>
       <c r="P23" t="n">
-        <v>11.42334162320583</v>
+        <v>11.42334162320584</v>
       </c>
       <c r="Q23" t="n">
-        <v>8.578453822292699</v>
+        <v>8.57845382229271</v>
       </c>
       <c r="R23" t="n">
-        <v>4.990022571004793</v>
+        <v>4.9900225710048</v>
       </c>
       <c r="S23" t="n">
-        <v>1.81020260421104</v>
+        <v>1.810202604211042</v>
       </c>
       <c r="T23" t="n">
-        <v>0.3477416083350005</v>
+        <v>0.3477416083350009</v>
       </c>
       <c r="U23" t="n">
-        <v>0.006355072225425476</v>
+        <v>0.006355072225425484</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.04250329260200545</v>
+        <v>0.0425032926020055</v>
       </c>
       <c r="H24" t="n">
-        <v>0.4104923259193685</v>
+        <v>0.410492325919369</v>
       </c>
       <c r="I24" t="n">
-        <v>1.463380907569047</v>
+        <v>1.463380907569049</v>
       </c>
       <c r="J24" t="n">
-        <v>4.015629061139472</v>
+        <v>4.015629061139476</v>
       </c>
       <c r="K24" t="n">
-        <v>6.863349665473836</v>
+        <v>6.863349665473845</v>
       </c>
       <c r="L24" t="n">
-        <v>9.228620615185438</v>
+        <v>9.22862061518545</v>
       </c>
       <c r="M24" t="n">
-        <v>10.76936497200813</v>
+        <v>10.76936497200815</v>
       </c>
       <c r="N24" t="n">
-        <v>11.05439801757158</v>
+        <v>11.0543980175716</v>
       </c>
       <c r="O24" t="n">
-        <v>10.11261453412715</v>
+        <v>10.11261453412716</v>
       </c>
       <c r="P24" t="n">
-        <v>8.116264707482953</v>
+        <v>8.116264707482964</v>
       </c>
       <c r="Q24" t="n">
-        <v>5.425508017055994</v>
+        <v>5.425508017056001</v>
       </c>
       <c r="R24" t="n">
-        <v>2.638932500324515</v>
+        <v>2.638932500324518</v>
       </c>
       <c r="S24" t="n">
-        <v>0.7894800182872498</v>
+        <v>0.7894800182872508</v>
       </c>
       <c r="T24" t="n">
-        <v>0.1713180960580833</v>
+        <v>0.1713180960580835</v>
       </c>
       <c r="U24" t="n">
-        <v>0.002796269250131939</v>
+        <v>0.002796269250131942</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03563333273938622</v>
+        <v>0.03563333273938626</v>
       </c>
       <c r="H25" t="n">
-        <v>0.3168127219919977</v>
+        <v>0.3168127219919981</v>
       </c>
       <c r="I25" t="n">
-        <v>1.071591497289906</v>
+        <v>1.071591497289907</v>
       </c>
       <c r="J25" t="n">
-        <v>2.519276624674605</v>
+        <v>2.519276624674608</v>
       </c>
       <c r="K25" t="n">
-        <v>4.139945385539598</v>
+        <v>4.139945385539603</v>
       </c>
       <c r="L25" t="n">
-        <v>5.297704760181111</v>
+        <v>5.297704760181118</v>
       </c>
       <c r="M25" t="n">
-        <v>5.585686876593059</v>
+        <v>5.585686876593066</v>
       </c>
       <c r="N25" t="n">
-        <v>5.452871727291714</v>
+        <v>5.452871727291721</v>
       </c>
       <c r="O25" t="n">
-        <v>5.036609613017974</v>
+        <v>5.03660961301798</v>
       </c>
       <c r="P25" t="n">
-        <v>4.30968962513449</v>
+        <v>4.309689625134497</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.983805707840786</v>
+        <v>2.983805707840789</v>
       </c>
       <c r="R25" t="n">
-        <v>1.60220421571822</v>
+        <v>1.602204215718222</v>
       </c>
       <c r="S25" t="n">
-        <v>0.6209918078309395</v>
+        <v>0.6209918078309403</v>
       </c>
       <c r="T25" t="n">
-        <v>0.1522515126137411</v>
+        <v>0.1522515126137413</v>
       </c>
       <c r="U25" t="n">
-        <v>0.00194363633123925</v>
+        <v>0.001943636331239253</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.07943840281781846</v>
+        <v>0.07943840281781855</v>
       </c>
       <c r="H26" t="n">
-        <v>0.8135485428579835</v>
+        <v>0.8135485428579845</v>
       </c>
       <c r="I26" t="n">
-        <v>3.062549024633949</v>
+        <v>3.062549024633953</v>
       </c>
       <c r="J26" t="n">
-        <v>6.742235141158826</v>
+        <v>6.742235141158834</v>
       </c>
       <c r="K26" t="n">
-        <v>10.10486273243708</v>
+        <v>10.1048627324371</v>
       </c>
       <c r="L26" t="n">
-        <v>12.5359757526729</v>
+        <v>12.53597575267291</v>
       </c>
       <c r="M26" t="n">
-        <v>13.94868844878428</v>
+        <v>13.94868844878429</v>
       </c>
       <c r="N26" t="n">
-        <v>14.1743928107904</v>
+        <v>14.17439281079042</v>
       </c>
       <c r="O26" t="n">
-        <v>13.38447719277072</v>
+        <v>13.38447719277074</v>
       </c>
       <c r="P26" t="n">
-        <v>11.42334162320583</v>
+        <v>11.42334162320584</v>
       </c>
       <c r="Q26" t="n">
-        <v>8.578453822292699</v>
+        <v>8.57845382229271</v>
       </c>
       <c r="R26" t="n">
-        <v>4.990022571004793</v>
+        <v>4.9900225710048</v>
       </c>
       <c r="S26" t="n">
-        <v>1.81020260421104</v>
+        <v>1.810202604211042</v>
       </c>
       <c r="T26" t="n">
-        <v>0.3477416083350005</v>
+        <v>0.3477416083350009</v>
       </c>
       <c r="U26" t="n">
-        <v>0.006355072225425476</v>
+        <v>0.006355072225425484</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.04250329260200545</v>
+        <v>0.0425032926020055</v>
       </c>
       <c r="H27" t="n">
-        <v>0.4104923259193685</v>
+        <v>0.410492325919369</v>
       </c>
       <c r="I27" t="n">
-        <v>1.463380907569047</v>
+        <v>1.463380907569049</v>
       </c>
       <c r="J27" t="n">
-        <v>4.015629061139472</v>
+        <v>4.015629061139476</v>
       </c>
       <c r="K27" t="n">
-        <v>6.863349665473836</v>
+        <v>6.863349665473845</v>
       </c>
       <c r="L27" t="n">
-        <v>9.228620615185438</v>
+        <v>9.22862061518545</v>
       </c>
       <c r="M27" t="n">
-        <v>10.76936497200813</v>
+        <v>10.76936497200815</v>
       </c>
       <c r="N27" t="n">
-        <v>11.05439801757158</v>
+        <v>11.0543980175716</v>
       </c>
       <c r="O27" t="n">
-        <v>10.11261453412715</v>
+        <v>10.11261453412716</v>
       </c>
       <c r="P27" t="n">
-        <v>8.116264707482953</v>
+        <v>8.116264707482964</v>
       </c>
       <c r="Q27" t="n">
-        <v>5.425508017055994</v>
+        <v>5.425508017056001</v>
       </c>
       <c r="R27" t="n">
-        <v>2.638932500324515</v>
+        <v>2.638932500324518</v>
       </c>
       <c r="S27" t="n">
-        <v>0.7894800182872498</v>
+        <v>0.7894800182872508</v>
       </c>
       <c r="T27" t="n">
-        <v>0.1713180960580833</v>
+        <v>0.1713180960580835</v>
       </c>
       <c r="U27" t="n">
-        <v>0.002796269250131939</v>
+        <v>0.002796269250131942</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03563333273938622</v>
+        <v>0.03563333273938626</v>
       </c>
       <c r="H28" t="n">
-        <v>0.3168127219919977</v>
+        <v>0.3168127219919981</v>
       </c>
       <c r="I28" t="n">
-        <v>1.071591497289906</v>
+        <v>1.071591497289907</v>
       </c>
       <c r="J28" t="n">
-        <v>2.519276624674605</v>
+        <v>2.519276624674608</v>
       </c>
       <c r="K28" t="n">
-        <v>4.139945385539598</v>
+        <v>4.139945385539603</v>
       </c>
       <c r="L28" t="n">
-        <v>5.297704760181111</v>
+        <v>5.297704760181118</v>
       </c>
       <c r="M28" t="n">
-        <v>5.585686876593059</v>
+        <v>5.585686876593066</v>
       </c>
       <c r="N28" t="n">
-        <v>5.452871727291714</v>
+        <v>5.452871727291721</v>
       </c>
       <c r="O28" t="n">
-        <v>5.036609613017974</v>
+        <v>5.03660961301798</v>
       </c>
       <c r="P28" t="n">
-        <v>4.30968962513449</v>
+        <v>4.309689625134497</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.983805707840786</v>
+        <v>2.983805707840789</v>
       </c>
       <c r="R28" t="n">
-        <v>1.60220421571822</v>
+        <v>1.602204215718222</v>
       </c>
       <c r="S28" t="n">
-        <v>0.6209918078309395</v>
+        <v>0.6209918078309403</v>
       </c>
       <c r="T28" t="n">
-        <v>0.1522515126137411</v>
+        <v>0.1522515126137413</v>
       </c>
       <c r="U28" t="n">
-        <v>0.00194363633123925</v>
+        <v>0.001943636331239253</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.07943840281781846</v>
+        <v>0.07943840281781855</v>
       </c>
       <c r="H29" t="n">
-        <v>0.8135485428579835</v>
+        <v>0.8135485428579845</v>
       </c>
       <c r="I29" t="n">
-        <v>3.062549024633949</v>
+        <v>3.062549024633953</v>
       </c>
       <c r="J29" t="n">
-        <v>6.742235141158826</v>
+        <v>6.742235141158834</v>
       </c>
       <c r="K29" t="n">
-        <v>10.10486273243708</v>
+        <v>10.1048627324371</v>
       </c>
       <c r="L29" t="n">
-        <v>12.5359757526729</v>
+        <v>12.53597575267291</v>
       </c>
       <c r="M29" t="n">
-        <v>13.94868844878428</v>
+        <v>13.94868844878429</v>
       </c>
       <c r="N29" t="n">
-        <v>14.1743928107904</v>
+        <v>14.17439281079042</v>
       </c>
       <c r="O29" t="n">
-        <v>13.38447719277072</v>
+        <v>13.38447719277074</v>
       </c>
       <c r="P29" t="n">
-        <v>11.42334162320583</v>
+        <v>11.42334162320584</v>
       </c>
       <c r="Q29" t="n">
-        <v>8.578453822292699</v>
+        <v>8.57845382229271</v>
       </c>
       <c r="R29" t="n">
-        <v>4.990022571004793</v>
+        <v>4.9900225710048</v>
       </c>
       <c r="S29" t="n">
-        <v>1.81020260421104</v>
+        <v>1.810202604211042</v>
       </c>
       <c r="T29" t="n">
-        <v>0.3477416083350005</v>
+        <v>0.3477416083350009</v>
       </c>
       <c r="U29" t="n">
-        <v>0.006355072225425476</v>
+        <v>0.006355072225425484</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.04250329260200545</v>
+        <v>0.0425032926020055</v>
       </c>
       <c r="H30" t="n">
-        <v>0.4104923259193685</v>
+        <v>0.410492325919369</v>
       </c>
       <c r="I30" t="n">
-        <v>1.463380907569047</v>
+        <v>1.463380907569049</v>
       </c>
       <c r="J30" t="n">
-        <v>4.015629061139472</v>
+        <v>4.015629061139476</v>
       </c>
       <c r="K30" t="n">
-        <v>6.863349665473836</v>
+        <v>6.863349665473845</v>
       </c>
       <c r="L30" t="n">
-        <v>9.228620615185438</v>
+        <v>9.22862061518545</v>
       </c>
       <c r="M30" t="n">
-        <v>10.76936497200813</v>
+        <v>10.76936497200815</v>
       </c>
       <c r="N30" t="n">
-        <v>11.05439801757158</v>
+        <v>11.0543980175716</v>
       </c>
       <c r="O30" t="n">
-        <v>10.11261453412715</v>
+        <v>10.11261453412716</v>
       </c>
       <c r="P30" t="n">
-        <v>8.116264707482953</v>
+        <v>8.116264707482964</v>
       </c>
       <c r="Q30" t="n">
-        <v>5.425508017055994</v>
+        <v>5.425508017056001</v>
       </c>
       <c r="R30" t="n">
-        <v>2.638932500324515</v>
+        <v>2.638932500324518</v>
       </c>
       <c r="S30" t="n">
-        <v>0.7894800182872498</v>
+        <v>0.7894800182872508</v>
       </c>
       <c r="T30" t="n">
-        <v>0.1713180960580833</v>
+        <v>0.1713180960580835</v>
       </c>
       <c r="U30" t="n">
-        <v>0.002796269250131939</v>
+        <v>0.002796269250131942</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03563333273938622</v>
+        <v>0.03563333273938626</v>
       </c>
       <c r="H31" t="n">
-        <v>0.3168127219919977</v>
+        <v>0.3168127219919981</v>
       </c>
       <c r="I31" t="n">
-        <v>1.071591497289906</v>
+        <v>1.071591497289907</v>
       </c>
       <c r="J31" t="n">
-        <v>2.519276624674605</v>
+        <v>2.519276624674608</v>
       </c>
       <c r="K31" t="n">
-        <v>4.139945385539598</v>
+        <v>4.139945385539603</v>
       </c>
       <c r="L31" t="n">
-        <v>5.297704760181111</v>
+        <v>5.297704760181118</v>
       </c>
       <c r="M31" t="n">
-        <v>5.585686876593059</v>
+        <v>5.585686876593066</v>
       </c>
       <c r="N31" t="n">
-        <v>5.452871727291714</v>
+        <v>5.452871727291721</v>
       </c>
       <c r="O31" t="n">
-        <v>5.036609613017974</v>
+        <v>5.03660961301798</v>
       </c>
       <c r="P31" t="n">
-        <v>4.30968962513449</v>
+        <v>4.309689625134497</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.983805707840786</v>
+        <v>2.983805707840789</v>
       </c>
       <c r="R31" t="n">
-        <v>1.60220421571822</v>
+        <v>1.602204215718222</v>
       </c>
       <c r="S31" t="n">
-        <v>0.6209918078309395</v>
+        <v>0.6209918078309403</v>
       </c>
       <c r="T31" t="n">
-        <v>0.1522515126137411</v>
+        <v>0.1522515126137413</v>
       </c>
       <c r="U31" t="n">
-        <v>0.00194363633123925</v>
+        <v>0.001943636331239253</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,28 +33411,28 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.07943840281781858</v>
+        <v>0.07943840281781855</v>
       </c>
       <c r="H32" t="n">
-        <v>0.8135485428579848</v>
+        <v>0.8135485428579845</v>
       </c>
       <c r="I32" t="n">
-        <v>3.062549024633954</v>
+        <v>3.062549024633953</v>
       </c>
       <c r="J32" t="n">
-        <v>6.742235141158837</v>
+        <v>6.742235141158834</v>
       </c>
       <c r="K32" t="n">
         <v>10.1048627324371</v>
       </c>
       <c r="L32" t="n">
-        <v>12.53597575267292</v>
+        <v>12.53597575267291</v>
       </c>
       <c r="M32" t="n">
-        <v>13.9486884487843</v>
+        <v>13.94868844878429</v>
       </c>
       <c r="N32" t="n">
-        <v>14.17439281079043</v>
+        <v>14.17439281079042</v>
       </c>
       <c r="O32" t="n">
         <v>13.38447719277074</v>
@@ -33441,19 +33441,19 @@
         <v>11.42334162320584</v>
       </c>
       <c r="Q32" t="n">
-        <v>8.578453822292714</v>
+        <v>8.57845382229271</v>
       </c>
       <c r="R32" t="n">
-        <v>4.990022571004801</v>
+        <v>4.9900225710048</v>
       </c>
       <c r="S32" t="n">
-        <v>1.810202604211043</v>
+        <v>1.810202604211042</v>
       </c>
       <c r="T32" t="n">
-        <v>0.3477416083350011</v>
+        <v>0.3477416083350009</v>
       </c>
       <c r="U32" t="n">
-        <v>0.006355072225425485</v>
+        <v>0.006355072225425484</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,22 +33490,22 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04250329260200552</v>
+        <v>0.0425032926020055</v>
       </c>
       <c r="H33" t="n">
-        <v>0.4104923259193691</v>
+        <v>0.410492325919369</v>
       </c>
       <c r="I33" t="n">
-        <v>1.46338090756905</v>
+        <v>1.463380907569049</v>
       </c>
       <c r="J33" t="n">
-        <v>4.015629061139478</v>
+        <v>4.015629061139476</v>
       </c>
       <c r="K33" t="n">
-        <v>6.863349665473847</v>
+        <v>6.863349665473845</v>
       </c>
       <c r="L33" t="n">
-        <v>9.228620615185452</v>
+        <v>9.22862061518545</v>
       </c>
       <c r="M33" t="n">
         <v>10.76936497200815</v>
@@ -33517,22 +33517,22 @@
         <v>10.11261453412716</v>
       </c>
       <c r="P33" t="n">
-        <v>8.116264707482966</v>
+        <v>8.116264707482964</v>
       </c>
       <c r="Q33" t="n">
-        <v>5.425508017056003</v>
+        <v>5.425508017056001</v>
       </c>
       <c r="R33" t="n">
-        <v>2.638932500324519</v>
+        <v>2.638932500324518</v>
       </c>
       <c r="S33" t="n">
-        <v>0.7894800182872511</v>
+        <v>0.7894800182872508</v>
       </c>
       <c r="T33" t="n">
-        <v>0.1713180960580836</v>
+        <v>0.1713180960580835</v>
       </c>
       <c r="U33" t="n">
-        <v>0.002796269250131943</v>
+        <v>0.002796269250131942</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,43 +33569,43 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.03563333273938627</v>
+        <v>0.03563333273938626</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3168127219919982</v>
+        <v>0.3168127219919981</v>
       </c>
       <c r="I34" t="n">
         <v>1.071591497289907</v>
       </c>
       <c r="J34" t="n">
-        <v>2.519276624674609</v>
+        <v>2.519276624674608</v>
       </c>
       <c r="K34" t="n">
-        <v>4.139945385539604</v>
+        <v>4.139945385539603</v>
       </c>
       <c r="L34" t="n">
-        <v>5.297704760181119</v>
+        <v>5.297704760181118</v>
       </c>
       <c r="M34" t="n">
-        <v>5.585686876593067</v>
+        <v>5.585686876593066</v>
       </c>
       <c r="N34" t="n">
-        <v>5.452871727291723</v>
+        <v>5.452871727291721</v>
       </c>
       <c r="O34" t="n">
-        <v>5.036609613017982</v>
+        <v>5.03660961301798</v>
       </c>
       <c r="P34" t="n">
-        <v>4.309689625134498</v>
+        <v>4.309689625134497</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.983805707840791</v>
+        <v>2.983805707840789</v>
       </c>
       <c r="R34" t="n">
         <v>1.602204215718222</v>
       </c>
       <c r="S34" t="n">
-        <v>0.6209918078309405</v>
+        <v>0.6209918078309403</v>
       </c>
       <c r="T34" t="n">
         <v>0.1522515126137413</v>
@@ -33648,28 +33648,28 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.07943840281781858</v>
+        <v>0.07943840281781855</v>
       </c>
       <c r="H35" t="n">
-        <v>0.8135485428579848</v>
+        <v>0.8135485428579845</v>
       </c>
       <c r="I35" t="n">
-        <v>3.062549024633954</v>
+        <v>3.062549024633953</v>
       </c>
       <c r="J35" t="n">
-        <v>6.742235141158837</v>
+        <v>6.742235141158834</v>
       </c>
       <c r="K35" t="n">
         <v>10.1048627324371</v>
       </c>
       <c r="L35" t="n">
-        <v>12.53597575267292</v>
+        <v>12.53597575267291</v>
       </c>
       <c r="M35" t="n">
-        <v>13.9486884487843</v>
+        <v>13.94868844878429</v>
       </c>
       <c r="N35" t="n">
-        <v>14.17439281079043</v>
+        <v>14.17439281079042</v>
       </c>
       <c r="O35" t="n">
         <v>13.38447719277074</v>
@@ -33678,19 +33678,19 @@
         <v>11.42334162320584</v>
       </c>
       <c r="Q35" t="n">
-        <v>8.578453822292714</v>
+        <v>8.57845382229271</v>
       </c>
       <c r="R35" t="n">
-        <v>4.990022571004801</v>
+        <v>4.9900225710048</v>
       </c>
       <c r="S35" t="n">
-        <v>1.810202604211043</v>
+        <v>1.810202604211042</v>
       </c>
       <c r="T35" t="n">
-        <v>0.3477416083350011</v>
+        <v>0.3477416083350009</v>
       </c>
       <c r="U35" t="n">
-        <v>0.006355072225425485</v>
+        <v>0.006355072225425484</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,22 +33727,22 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.04250329260200552</v>
+        <v>0.0425032926020055</v>
       </c>
       <c r="H36" t="n">
-        <v>0.4104923259193691</v>
+        <v>0.410492325919369</v>
       </c>
       <c r="I36" t="n">
-        <v>1.46338090756905</v>
+        <v>1.463380907569049</v>
       </c>
       <c r="J36" t="n">
-        <v>4.015629061139478</v>
+        <v>4.015629061139476</v>
       </c>
       <c r="K36" t="n">
-        <v>6.863349665473847</v>
+        <v>6.863349665473845</v>
       </c>
       <c r="L36" t="n">
-        <v>9.228620615185452</v>
+        <v>9.22862061518545</v>
       </c>
       <c r="M36" t="n">
         <v>10.76936497200815</v>
@@ -33754,22 +33754,22 @@
         <v>10.11261453412716</v>
       </c>
       <c r="P36" t="n">
-        <v>8.116264707482966</v>
+        <v>8.116264707482964</v>
       </c>
       <c r="Q36" t="n">
-        <v>5.425508017056003</v>
+        <v>5.425508017056001</v>
       </c>
       <c r="R36" t="n">
-        <v>2.638932500324519</v>
+        <v>2.638932500324518</v>
       </c>
       <c r="S36" t="n">
-        <v>0.7894800182872511</v>
+        <v>0.7894800182872508</v>
       </c>
       <c r="T36" t="n">
-        <v>0.1713180960580836</v>
+        <v>0.1713180960580835</v>
       </c>
       <c r="U36" t="n">
-        <v>0.002796269250131943</v>
+        <v>0.002796269250131942</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,43 +33806,43 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03563333273938627</v>
+        <v>0.03563333273938626</v>
       </c>
       <c r="H37" t="n">
-        <v>0.3168127219919982</v>
+        <v>0.3168127219919981</v>
       </c>
       <c r="I37" t="n">
         <v>1.071591497289907</v>
       </c>
       <c r="J37" t="n">
-        <v>2.519276624674609</v>
+        <v>2.519276624674608</v>
       </c>
       <c r="K37" t="n">
-        <v>4.139945385539604</v>
+        <v>4.139945385539603</v>
       </c>
       <c r="L37" t="n">
-        <v>5.297704760181119</v>
+        <v>5.297704760181118</v>
       </c>
       <c r="M37" t="n">
-        <v>5.585686876593067</v>
+        <v>5.585686876593066</v>
       </c>
       <c r="N37" t="n">
-        <v>5.452871727291723</v>
+        <v>5.452871727291721</v>
       </c>
       <c r="O37" t="n">
-        <v>5.036609613017982</v>
+        <v>5.03660961301798</v>
       </c>
       <c r="P37" t="n">
-        <v>4.309689625134498</v>
+        <v>4.309689625134497</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.983805707840791</v>
+        <v>2.983805707840789</v>
       </c>
       <c r="R37" t="n">
         <v>1.602204215718222</v>
       </c>
       <c r="S37" t="n">
-        <v>0.6209918078309405</v>
+        <v>0.6209918078309403</v>
       </c>
       <c r="T37" t="n">
         <v>0.1522515126137413</v>
@@ -33885,28 +33885,28 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.07943840281781858</v>
+        <v>0.07943840281781855</v>
       </c>
       <c r="H38" t="n">
-        <v>0.8135485428579848</v>
+        <v>0.8135485428579845</v>
       </c>
       <c r="I38" t="n">
-        <v>3.062549024633954</v>
+        <v>3.062549024633953</v>
       </c>
       <c r="J38" t="n">
-        <v>6.742235141158837</v>
+        <v>6.742235141158834</v>
       </c>
       <c r="K38" t="n">
         <v>10.1048627324371</v>
       </c>
       <c r="L38" t="n">
-        <v>12.53597575267292</v>
+        <v>12.53597575267291</v>
       </c>
       <c r="M38" t="n">
-        <v>13.9486884487843</v>
+        <v>13.94868844878429</v>
       </c>
       <c r="N38" t="n">
-        <v>14.17439281079043</v>
+        <v>14.17439281079042</v>
       </c>
       <c r="O38" t="n">
         <v>13.38447719277074</v>
@@ -33915,19 +33915,19 @@
         <v>11.42334162320584</v>
       </c>
       <c r="Q38" t="n">
-        <v>8.578453822292714</v>
+        <v>8.57845382229271</v>
       </c>
       <c r="R38" t="n">
-        <v>4.990022571004801</v>
+        <v>4.9900225710048</v>
       </c>
       <c r="S38" t="n">
-        <v>1.810202604211043</v>
+        <v>1.810202604211042</v>
       </c>
       <c r="T38" t="n">
-        <v>0.3477416083350011</v>
+        <v>0.3477416083350009</v>
       </c>
       <c r="U38" t="n">
-        <v>0.006355072225425485</v>
+        <v>0.006355072225425484</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,22 +33964,22 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.04250329260200552</v>
+        <v>0.0425032926020055</v>
       </c>
       <c r="H39" t="n">
-        <v>0.4104923259193691</v>
+        <v>0.410492325919369</v>
       </c>
       <c r="I39" t="n">
-        <v>1.46338090756905</v>
+        <v>1.463380907569049</v>
       </c>
       <c r="J39" t="n">
-        <v>4.015629061139478</v>
+        <v>4.015629061139476</v>
       </c>
       <c r="K39" t="n">
-        <v>6.863349665473847</v>
+        <v>6.863349665473845</v>
       </c>
       <c r="L39" t="n">
-        <v>9.228620615185452</v>
+        <v>9.22862061518545</v>
       </c>
       <c r="M39" t="n">
         <v>10.76936497200815</v>
@@ -33991,22 +33991,22 @@
         <v>10.11261453412716</v>
       </c>
       <c r="P39" t="n">
-        <v>8.116264707482966</v>
+        <v>8.116264707482964</v>
       </c>
       <c r="Q39" t="n">
-        <v>5.425508017056003</v>
+        <v>5.425508017056001</v>
       </c>
       <c r="R39" t="n">
-        <v>2.638932500324519</v>
+        <v>2.638932500324518</v>
       </c>
       <c r="S39" t="n">
-        <v>0.7894800182872511</v>
+        <v>0.7894800182872508</v>
       </c>
       <c r="T39" t="n">
-        <v>0.1713180960580836</v>
+        <v>0.1713180960580835</v>
       </c>
       <c r="U39" t="n">
-        <v>0.002796269250131943</v>
+        <v>0.002796269250131942</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,43 +34043,43 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03563333273938627</v>
+        <v>0.03563333273938626</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3168127219919982</v>
+        <v>0.3168127219919981</v>
       </c>
       <c r="I40" t="n">
         <v>1.071591497289907</v>
       </c>
       <c r="J40" t="n">
-        <v>2.519276624674609</v>
+        <v>2.519276624674608</v>
       </c>
       <c r="K40" t="n">
-        <v>4.139945385539604</v>
+        <v>4.139945385539603</v>
       </c>
       <c r="L40" t="n">
-        <v>5.297704760181119</v>
+        <v>5.297704760181118</v>
       </c>
       <c r="M40" t="n">
-        <v>5.585686876593067</v>
+        <v>5.585686876593066</v>
       </c>
       <c r="N40" t="n">
-        <v>5.452871727291723</v>
+        <v>5.452871727291721</v>
       </c>
       <c r="O40" t="n">
-        <v>5.036609613017982</v>
+        <v>5.03660961301798</v>
       </c>
       <c r="P40" t="n">
-        <v>4.309689625134498</v>
+        <v>4.309689625134497</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.983805707840791</v>
+        <v>2.983805707840789</v>
       </c>
       <c r="R40" t="n">
         <v>1.602204215718222</v>
       </c>
       <c r="S40" t="n">
-        <v>0.6209918078309405</v>
+        <v>0.6209918078309403</v>
       </c>
       <c r="T40" t="n">
         <v>0.1522515126137413</v>
@@ -34122,28 +34122,28 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.07943840281781858</v>
+        <v>0.07943840281781855</v>
       </c>
       <c r="H41" t="n">
-        <v>0.8135485428579848</v>
+        <v>0.8135485428579845</v>
       </c>
       <c r="I41" t="n">
-        <v>3.062549024633954</v>
+        <v>3.062549024633953</v>
       </c>
       <c r="J41" t="n">
-        <v>6.742235141158837</v>
+        <v>6.742235141158834</v>
       </c>
       <c r="K41" t="n">
         <v>10.1048627324371</v>
       </c>
       <c r="L41" t="n">
-        <v>12.53597575267292</v>
+        <v>12.53597575267291</v>
       </c>
       <c r="M41" t="n">
-        <v>13.9486884487843</v>
+        <v>13.94868844878429</v>
       </c>
       <c r="N41" t="n">
-        <v>14.17439281079043</v>
+        <v>14.17439281079042</v>
       </c>
       <c r="O41" t="n">
         <v>13.38447719277074</v>
@@ -34152,19 +34152,19 @@
         <v>11.42334162320584</v>
       </c>
       <c r="Q41" t="n">
-        <v>8.578453822292714</v>
+        <v>8.57845382229271</v>
       </c>
       <c r="R41" t="n">
-        <v>4.990022571004801</v>
+        <v>4.9900225710048</v>
       </c>
       <c r="S41" t="n">
-        <v>1.810202604211043</v>
+        <v>1.810202604211042</v>
       </c>
       <c r="T41" t="n">
-        <v>0.3477416083350011</v>
+        <v>0.3477416083350009</v>
       </c>
       <c r="U41" t="n">
-        <v>0.006355072225425485</v>
+        <v>0.006355072225425484</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,22 +34201,22 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04250329260200552</v>
+        <v>0.0425032926020055</v>
       </c>
       <c r="H42" t="n">
-        <v>0.4104923259193691</v>
+        <v>0.410492325919369</v>
       </c>
       <c r="I42" t="n">
-        <v>1.46338090756905</v>
+        <v>1.463380907569049</v>
       </c>
       <c r="J42" t="n">
-        <v>4.015629061139478</v>
+        <v>4.015629061139476</v>
       </c>
       <c r="K42" t="n">
-        <v>6.863349665473847</v>
+        <v>6.863349665473845</v>
       </c>
       <c r="L42" t="n">
-        <v>9.228620615185452</v>
+        <v>9.22862061518545</v>
       </c>
       <c r="M42" t="n">
         <v>10.76936497200815</v>
@@ -34228,22 +34228,22 @@
         <v>10.11261453412716</v>
       </c>
       <c r="P42" t="n">
-        <v>8.116264707482966</v>
+        <v>8.116264707482964</v>
       </c>
       <c r="Q42" t="n">
-        <v>5.425508017056003</v>
+        <v>5.425508017056001</v>
       </c>
       <c r="R42" t="n">
-        <v>2.638932500324519</v>
+        <v>2.638932500324518</v>
       </c>
       <c r="S42" t="n">
-        <v>0.7894800182872511</v>
+        <v>0.7894800182872508</v>
       </c>
       <c r="T42" t="n">
-        <v>0.1713180960580836</v>
+        <v>0.1713180960580835</v>
       </c>
       <c r="U42" t="n">
-        <v>0.002796269250131943</v>
+        <v>0.002796269250131942</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,43 +34280,43 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.03563333273938627</v>
+        <v>0.03563333273938626</v>
       </c>
       <c r="H43" t="n">
-        <v>0.3168127219919982</v>
+        <v>0.3168127219919981</v>
       </c>
       <c r="I43" t="n">
         <v>1.071591497289907</v>
       </c>
       <c r="J43" t="n">
-        <v>2.519276624674609</v>
+        <v>2.519276624674608</v>
       </c>
       <c r="K43" t="n">
-        <v>4.139945385539604</v>
+        <v>4.139945385539603</v>
       </c>
       <c r="L43" t="n">
-        <v>5.297704760181119</v>
+        <v>5.297704760181118</v>
       </c>
       <c r="M43" t="n">
-        <v>5.585686876593067</v>
+        <v>5.585686876593066</v>
       </c>
       <c r="N43" t="n">
-        <v>5.452871727291723</v>
+        <v>5.452871727291721</v>
       </c>
       <c r="O43" t="n">
-        <v>5.036609613017982</v>
+        <v>5.03660961301798</v>
       </c>
       <c r="P43" t="n">
-        <v>4.309689625134498</v>
+        <v>4.309689625134497</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.983805707840791</v>
+        <v>2.983805707840789</v>
       </c>
       <c r="R43" t="n">
         <v>1.602204215718222</v>
       </c>
       <c r="S43" t="n">
-        <v>0.6209918078309405</v>
+        <v>0.6209918078309403</v>
       </c>
       <c r="T43" t="n">
         <v>0.1522515126137413</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>497.9396303685323</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>117.1778397212395</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
         <v>186.7126870110591</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>582.1523102088539</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N3" t="n">
-        <v>591.4121262692951</v>
+        <v>389.1627148536588</v>
       </c>
       <c r="O3" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -34935,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>314.3065239219562</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>551.5160606510915</v>
@@ -34953,10 +34953,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>117.1778397212395</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35023,10 +35023,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>484.6198681696878</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>521.7376591828091</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
         <v>362.6084404317796</v>
@@ -35187,7 +35187,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>396.1825288359632</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35254,13 +35254,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>417.1838539570837</v>
+        <v>582.152310208853</v>
       </c>
       <c r="N9" t="n">
         <v>591.4121262692951</v>
@@ -35269,10 +35269,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35491,16 +35491,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>329.8321840717632</v>
       </c>
       <c r="L12" t="n">
-        <v>68.09848193236115</v>
+        <v>497.6792124316635</v>
       </c>
       <c r="M12" t="n">
-        <v>644.8821423726962</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>673.4563891393485</v>
+        <v>316.7676932119127</v>
       </c>
       <c r="O12" t="n">
         <v>531.8502737169363</v>
@@ -35509,7 +35509,7 @@
         <v>417.8348189664703</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>242.1579237290666</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,16 +35567,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>64.82437107467707</v>
+        <v>64.82437107467706</v>
       </c>
       <c r="K13" t="n">
         <v>179.1811849945111</v>
       </c>
       <c r="L13" t="n">
-        <v>263.4627815043627</v>
+        <v>263.4627815043626</v>
       </c>
       <c r="M13" t="n">
-        <v>286.1385802515466</v>
+        <v>286.1385802515465</v>
       </c>
       <c r="N13" t="n">
         <v>282.8724880244121</v>
@@ -35588,7 +35588,7 @@
         <v>217.7763076852542</v>
       </c>
       <c r="Q13" t="n">
-        <v>98.8201516401548</v>
+        <v>98.82015164015479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,16 +35652,16 @@
         <v>372.7133031642167</v>
       </c>
       <c r="L14" t="n">
-        <v>510.8393007208838</v>
+        <v>510.8393007208839</v>
       </c>
       <c r="M14" t="n">
-        <v>565.4647490998757</v>
+        <v>565.4647490998758</v>
       </c>
       <c r="N14" t="n">
-        <v>547.3171035557015</v>
+        <v>547.3171035557016</v>
       </c>
       <c r="O14" t="n">
-        <v>457.868922538557</v>
+        <v>457.8689225385571</v>
       </c>
       <c r="P14" t="n">
         <v>363.1278791297935</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>118.2731868588439</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>329.8321840717632</v>
       </c>
       <c r="L15" t="n">
         <v>497.6792124316635</v>
       </c>
       <c r="M15" t="n">
-        <v>644.8821423726962</v>
+        <v>440.6524300821354</v>
       </c>
       <c r="N15" t="n">
-        <v>673.4563891393484</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>520.1043621841044</v>
+        <v>531.8502737169363</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>417.8348189664703</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35816,7 +35816,7 @@
         <v>286.1385802515465</v>
       </c>
       <c r="N16" t="n">
-        <v>282.872488024412</v>
+        <v>282.8724880244121</v>
       </c>
       <c r="O16" t="n">
         <v>261.7644410722584</v>
@@ -35965,16 +35965,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>329.8321840717632</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>497.6792124316635</v>
       </c>
       <c r="M18" t="n">
-        <v>644.8821423726962</v>
+        <v>558.9256169409794</v>
       </c>
       <c r="N18" t="n">
-        <v>673.4563891393485</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>531.8502737169363</v>
@@ -35983,7 +35983,7 @@
         <v>417.8348189664703</v>
       </c>
       <c r="Q18" t="n">
-        <v>68.09848193236098</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36126,16 +36126,16 @@
         <v>372.7133031642167</v>
       </c>
       <c r="L20" t="n">
-        <v>510.8393007208839</v>
+        <v>510.8393007208838</v>
       </c>
       <c r="M20" t="n">
-        <v>565.4647490998758</v>
+        <v>565.4647490998757</v>
       </c>
       <c r="N20" t="n">
-        <v>547.3171035557016</v>
+        <v>547.3171035557015</v>
       </c>
       <c r="O20" t="n">
-        <v>457.8689225385571</v>
+        <v>457.868922538557</v>
       </c>
       <c r="P20" t="n">
         <v>363.1278791297935</v>
@@ -36208,16 +36208,16 @@
         <v>497.6792124316635</v>
       </c>
       <c r="M21" t="n">
-        <v>528.3266904248319</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>528.3266904248321</v>
       </c>
       <c r="O21" t="n">
         <v>531.8502737169363</v>
       </c>
       <c r="P21" t="n">
-        <v>417.8348189664703</v>
+        <v>417.8348189664702</v>
       </c>
       <c r="Q21" t="n">
         <v>242.1579237290666</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>64.82437107467703</v>
+        <v>64.82437107467702</v>
       </c>
       <c r="K22" t="n">
         <v>179.1811849945111</v>
@@ -36293,13 +36293,13 @@
         <v>282.872488024412</v>
       </c>
       <c r="O22" t="n">
-        <v>261.7644410722593</v>
+        <v>261.7644410722583</v>
       </c>
       <c r="P22" t="n">
-        <v>217.7763076852542</v>
+        <v>217.7763076852541</v>
       </c>
       <c r="Q22" t="n">
-        <v>98.82015164015476</v>
+        <v>98.8201516401556</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36372,7 +36372,7 @@
         <v>547.3171035557016</v>
       </c>
       <c r="O23" t="n">
-        <v>457.868922538557</v>
+        <v>457.8689225385571</v>
       </c>
       <c r="P23" t="n">
         <v>363.1278791297935</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>118.2731868588439</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>329.8321840717632</v>
       </c>
       <c r="L24" t="n">
         <v>497.6792124316635</v>
       </c>
       <c r="M24" t="n">
-        <v>644.8821423726962</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>673.4563891393484</v>
+        <v>198.4945063530687</v>
       </c>
       <c r="O24" t="n">
-        <v>520.1043621841044</v>
+        <v>531.8502737169363</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>417.8348189664703</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>242.1579237290666</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>64.82437107467783</v>
+        <v>64.82437107467703</v>
       </c>
       <c r="K25" t="n">
         <v>179.1811849945111</v>
       </c>
       <c r="L25" t="n">
-        <v>263.4627815043626</v>
+        <v>263.4627815043634</v>
       </c>
       <c r="M25" t="n">
         <v>286.1385802515465</v>
@@ -36609,7 +36609,7 @@
         <v>547.3171035557016</v>
       </c>
       <c r="O26" t="n">
-        <v>457.868922538557</v>
+        <v>457.8689225385571</v>
       </c>
       <c r="P26" t="n">
         <v>363.1278791297935</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>118.2731868588439</v>
       </c>
       <c r="K27" t="n">
         <v>329.8321840717632</v>
@@ -36682,10 +36682,10 @@
         <v>497.6792124316635</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>198.4945063530687</v>
       </c>
       <c r="N27" t="n">
-        <v>316.7676932119127</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>531.8502737169363</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>64.82437107467706</v>
+        <v>64.82437107467705</v>
       </c>
       <c r="K28" t="n">
         <v>179.1811849945111</v>
@@ -36764,7 +36764,7 @@
         <v>286.1385802515465</v>
       </c>
       <c r="N28" t="n">
-        <v>282.8724880244121</v>
+        <v>282.872488024412</v>
       </c>
       <c r="O28" t="n">
         <v>261.7644410722584</v>
@@ -36773,7 +36773,7 @@
         <v>217.7763076852542</v>
       </c>
       <c r="Q28" t="n">
-        <v>98.82015164015479</v>
+        <v>98.82015164015478</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36846,7 +36846,7 @@
         <v>547.3171035557016</v>
       </c>
       <c r="O29" t="n">
-        <v>457.868922538557</v>
+        <v>457.8689225385571</v>
       </c>
       <c r="P29" t="n">
         <v>363.1278791297935</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>118.2731868588439</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>329.8321840717632</v>
       </c>
       <c r="L30" t="n">
-        <v>485.9333008988316</v>
+        <v>497.6792124316635</v>
       </c>
       <c r="M30" t="n">
-        <v>644.8821423726962</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>673.4563891393484</v>
+        <v>198.4945063530687</v>
       </c>
       <c r="O30" t="n">
         <v>531.8502737169363</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>417.8348189664703</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>242.1579237290666</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37156,10 +37156,10 @@
         <v>497.6792124316635</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>198.4945063530687</v>
       </c>
       <c r="N33" t="n">
-        <v>198.4945063530687</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>531.8502737169363</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>74.06923171975949</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>86.80160307234958</v>
@@ -37244,10 +37244,10 @@
         <v>169.3848591500968</v>
       </c>
       <c r="P34" t="n">
-        <v>125.3967257630927</v>
+        <v>249.4097948472462</v>
       </c>
       <c r="Q34" t="n">
-        <v>130.4536388021468</v>
+        <v>80.50980143775357</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37393,10 +37393,10 @@
         <v>497.6792124316635</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>316.7676932119127</v>
       </c>
       <c r="N36" t="n">
-        <v>558.9256169409794</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>531.8502737169363</v>
@@ -37405,7 +37405,7 @@
         <v>417.8348189664703</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>242.1579237290666</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>74.06923171975949</v>
+        <v>74.06923171976034</v>
       </c>
       <c r="K37" t="n">
         <v>86.80160307234958</v>
       </c>
       <c r="L37" t="n">
-        <v>171.0831995822011</v>
+        <v>295.0962686663545</v>
       </c>
       <c r="M37" t="n">
         <v>193.758998329385</v>
@@ -37484,7 +37484,7 @@
         <v>125.3967257630927</v>
       </c>
       <c r="Q37" t="n">
-        <v>130.4536388021468</v>
+        <v>6.440569717993272</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37627,22 +37627,22 @@
         <v>329.8321840717632</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>140.9905165042277</v>
       </c>
       <c r="M39" t="n">
-        <v>644.8821423726962</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>673.4563891393485</v>
+        <v>673.4563891393484</v>
       </c>
       <c r="O39" t="n">
         <v>531.8502737169363</v>
       </c>
       <c r="P39" t="n">
-        <v>156.1011168270682</v>
+        <v>417.8348189664703</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>242.1579237290666</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>74.0692317197596</v>
+        <v>96.45785823666901</v>
       </c>
       <c r="K40" t="n">
-        <v>86.80160307234958</v>
+        <v>188.4260456395943</v>
       </c>
       <c r="L40" t="n">
         <v>171.0831995822011</v>
@@ -37721,7 +37721,7 @@
         <v>125.3967257630927</v>
       </c>
       <c r="Q40" t="n">
-        <v>130.4536388021468</v>
+        <v>6.440569717993272</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>118.2731868588439</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>68.09848193236115</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>644.8821423726962</v>
       </c>
       <c r="N42" t="n">
-        <v>673.4563891393485</v>
+        <v>673.4563891393484</v>
       </c>
       <c r="O42" t="n">
         <v>531.8502737169363</v>
       </c>
       <c r="P42" t="n">
-        <v>417.8348189664703</v>
+        <v>125.5021903109211</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>242.1579237290666</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>4.078276314507518</v>
+        <v>4.078276314507489</v>
       </c>
       <c r="K43" t="n">
-        <v>118.4350902343416</v>
+        <v>118.4350902343415</v>
       </c>
       <c r="L43" t="n">
         <v>202.7166867441931</v>
@@ -37958,7 +37958,7 @@
         <v>157.0302129250846</v>
       </c>
       <c r="Q43" t="n">
-        <v>38.07405687998525</v>
+        <v>38.07405687998522</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38104,10 +38104,10 @@
         <v>497.6792124316635</v>
       </c>
       <c r="M45" t="n">
-        <v>644.8821423726962</v>
+        <v>528.3266904248319</v>
       </c>
       <c r="N45" t="n">
-        <v>125.6024717812023</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>531.8502737169363</v>
@@ -38116,7 +38116,7 @@
         <v>417.8348189664703</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>242.1579237290666</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>4.078276314507519</v>
+        <v>4.078276314507477</v>
       </c>
       <c r="K46" t="n">
-        <v>118.4350902343416</v>
+        <v>118.4350902343415</v>
       </c>
       <c r="L46" t="n">
-        <v>202.7166867441931</v>
+        <v>202.716686744193</v>
       </c>
       <c r="M46" t="n">
-        <v>225.392485491377</v>
+        <v>225.3924854913769</v>
       </c>
       <c r="N46" t="n">
-        <v>222.1263932642425</v>
+        <v>222.1263932642424</v>
       </c>
       <c r="O46" t="n">
         <v>201.0183463120888</v>
@@ -38195,7 +38195,7 @@
         <v>157.0302129250846</v>
       </c>
       <c r="Q46" t="n">
-        <v>38.07405687998526</v>
+        <v>38.07405687998521</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
